--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>23/12/17</t>
+  </si>
+  <si>
+    <t>went through the remaining algorithm</t>
+  </si>
+  <si>
+    <t>write the completed pseudo code</t>
+  </si>
+  <si>
+    <t>went through research paper</t>
+  </si>
+  <si>
+    <t>start writing psuedocodes</t>
   </si>
 </sst>
 </file>
@@ -420,7 +432,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -519,10 +531,28 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>start writing psuedocodes</t>
+  </si>
+  <si>
+    <t>wrote the first pseudo code</t>
+  </si>
+  <si>
+    <t>complete pseudo codes for 2nd and 3rd algorithms and watched videos given by sir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Worked on the algorithm for the first flow chart, went through the research paper more and looked up on reinforcement learning</t>
+  </si>
+  <si>
+    <t>finish the pseudo code for the first flow chart, look up on Q-learning</t>
   </si>
 </sst>
 </file>
@@ -429,16 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="86.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="103.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="70.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="67.77734375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
@@ -559,10 +574,33 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -105,13 +105,51 @@
     <t>complete pseudo codes for 2nd and 3rd algorithms and watched videos given by sir</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Worked on the algorithm for the first flow chart, went through the research paper more and looked up on reinforcement learning</t>
   </si>
   <si>
     <t>finish the pseudo code for the first flow chart, look up on Q-learning</t>
+  </si>
+  <si>
+    <t>24/12/17</t>
+  </si>
+  <si>
+    <t>Had a meeting with all group members to discuss about the algorithms and finalized those</t>
+  </si>
+  <si>
+    <t>there is one last psudocode remaining for "After transmission phase"; need to complete it</t>
+  </si>
+  <si>
+    <t>there are some minor points I encounted while writing some algorithms. Need to get clasrified those</t>
+  </si>
+  <si>
+    <t>watch some python videos. Read Q learning research paper</t>
+  </si>
+  <si>
+    <t>Learn more about AD Hoc networks
+Go through research paper more</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Helped with writing the pseudo code for for first , second and third flowcharts. 
+Started working on the pseudo code for the fourth flowchart.</t>
+  </si>
+  <si>
+    <t>finish the pseudo code for the fourth flow chart.  Go through machine learning videos</t>
+  </si>
+  <si>
+    <t>While writing the algorithms. Came across points which need further clarification.</t>
+  </si>
+  <si>
+    <t>watched some ns3 videos. Discussed and wrote some psuedocodes</t>
+  </si>
+  <si>
+    <t>After transmission phase psuedocode has to complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> need to clarify flow chart doubts</t>
   </si>
 </sst>
 </file>
@@ -160,10 +198,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,17 +491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="103.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="72" style="2" customWidth="1"/>
     <col min="5" max="5" width="67.77734375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -589,18 +636,75 @@
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>28</v>
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -150,6 +150,39 @@
   </si>
   <si>
     <t xml:space="preserve"> need to clarify flow chart doubts</t>
+  </si>
+  <si>
+    <t>25/12/17</t>
+  </si>
+  <si>
+    <t>I couldn't do any work today, as I was busy with Christmas celebration all around me</t>
+  </si>
+  <si>
+    <t>help to refine the 4th pseudo code and complete it</t>
+  </si>
+  <si>
+    <t>Clarifications need to get from Chamira miss about what we have raised yesterday</t>
+  </si>
+  <si>
+    <t>go throught python videos</t>
+  </si>
+  <si>
+    <t>wrote last psuedocode</t>
+  </si>
+  <si>
+    <t>ns3 implementation stuff need to go through</t>
+  </si>
+  <si>
+    <t>had an outing</t>
+  </si>
+  <si>
+    <t>Wrote the algorithm for the fourth flowchart (Not perfect yet). Watched some Python tutorials.</t>
+  </si>
+  <si>
+    <t>Finalize the algorithm for the last flow chart. Watch further tutorials on related topics.</t>
+  </si>
+  <si>
+    <t>Came across some doubtful areas in the last flowchart.</t>
   </si>
 </sst>
 </file>
@@ -491,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -679,7 +712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -693,7 +726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -705,6 +738,67 @@
       </c>
       <c r="E18" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,36 @@
   </si>
   <si>
     <t>Came across some doubtful areas in the last flowchart.</t>
+  </si>
+  <si>
+    <t>26/12/17</t>
+  </si>
+  <si>
+    <t>Went through the old diagrams and check if there are any further improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complete the 4th pseudo code, Modify the old diagrams according to the answers for our questions we had</t>
+  </si>
+  <si>
+    <t>set up the environment for run ns3, went through the answers by sir and miss</t>
+  </si>
+  <si>
+    <t>complete psudocodes</t>
+  </si>
+  <si>
+    <t>watch some python videos</t>
+  </si>
+  <si>
+    <t>go through research papers</t>
+  </si>
+  <si>
+    <t>Got Ubuntu installed Went through the answers provided for the issues we had</t>
+  </si>
+  <si>
+    <t>Finalize algorithms</t>
+  </si>
+  <si>
+    <t>27/12/17</t>
   </si>
 </sst>
 </file>
@@ -524,17 +554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="103.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="72" style="2" customWidth="1"/>
+    <col min="4" max="4" width="86.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="67.77734375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -801,6 +831,70 @@
         <v>53</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,27 @@
   </si>
   <si>
     <t>27/12/17</t>
+  </si>
+  <si>
+    <t>Went through some of the machine learning tutorials, had a samll discussion about the 4th psudocode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find out the problems within the existing psudocodes and try to make them correct if we could find any faults.none </t>
+  </si>
+  <si>
+    <t>play around with ns3, went through the last psudocode which was discussed yesterday</t>
+  </si>
+  <si>
+    <t>need to move bit depth in psudocodes plus ns3</t>
+  </si>
+  <si>
+    <t>installed ubuntu, wenr through 4th psudocode</t>
+  </si>
+  <si>
+    <t>go through ns3 installing process</t>
+  </si>
+  <si>
+    <t>28/12/17</t>
   </si>
 </sst>
 </file>
@@ -554,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B36" sqref="B36:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -894,6 +915,74 @@
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Went through some of the machine learning tutorials, had a samll discussion about the 4th psudocode</t>
   </si>
   <si>
-    <t xml:space="preserve">find out the problems within the existing psudocodes and try to make them correct if we could find any faults.none </t>
-  </si>
-  <si>
     <t>play around with ns3, went through the last psudocode which was discussed yesterday</t>
   </si>
   <si>
@@ -234,6 +231,33 @@
   </si>
   <si>
     <t>28/12/17</t>
+  </si>
+  <si>
+    <t>Went through the pseudo codes and tried to clear out the doubts , participated for the meeting with the supervisor and discussed more about the written pseudo codes and get verified by them</t>
+  </si>
+  <si>
+    <t>Do the modifications for those pseudo codes with the teammates, start making the document about the the algorithms we have written with some explainations</t>
+  </si>
+  <si>
+    <t>find out the problems within the existing psudocodes and try to make them correct if we could find any faults.</t>
+  </si>
+  <si>
+    <t>none (had a busy day at work. I'll cover extra work tomorrow. )</t>
+  </si>
+  <si>
+    <t>go through ns3 installation procesd. Work on pseudo codes</t>
+  </si>
+  <si>
+    <t>went through the diagrams with new modifications</t>
+  </si>
+  <si>
+    <t>go through IT calculation and design diagram with teammates, start documenting</t>
+  </si>
+  <si>
+    <t>Went through the content of the discussion took place today with the supervisor</t>
+  </si>
+  <si>
+    <t>Make the necessary changes to the algorithms and finalize them</t>
   </si>
 </sst>
 </file>
@@ -282,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,6 +319,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,14 +603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B39"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="103.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="103" style="6" customWidth="1"/>
     <col min="4" max="4" width="86.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="67.77734375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
@@ -597,7 +623,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -616,7 +642,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -630,7 +656,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -644,7 +670,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -658,7 +684,7 @@
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -677,7 +703,7 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -691,7 +717,7 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -705,7 +731,7 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -715,11 +741,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -753,7 +779,7 @@
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -800,7 +826,7 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -814,7 +840,7 @@
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -828,7 +854,7 @@
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -842,7 +868,7 @@
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -852,17 +878,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -873,7 +899,7 @@
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -887,7 +913,7 @@
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -901,7 +927,7 @@
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -911,18 +937,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>65</v>
+      <c r="D31" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
@@ -932,11 +958,11 @@
       <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>36</v>
@@ -946,11 +972,11 @@
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>36</v>
@@ -961,27 +987,63 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,30 @@
   </si>
   <si>
     <t>Make the necessary changes to the algorithms and finalize them</t>
+  </si>
+  <si>
+    <t>29/12/17</t>
+  </si>
+  <si>
+    <t>Start going through the research papers and trying to understand the remaining model</t>
+  </si>
+  <si>
+    <t>finalize the 4th pseudo code, Finalize the other 3 codes, Read the research papers</t>
+  </si>
+  <si>
+    <t>wrote 4th psudocode</t>
+  </si>
+  <si>
+    <t>complete documenting</t>
+  </si>
+  <si>
+    <t>Write the pseduo code for modified 4th diagram</t>
+  </si>
+  <si>
+    <t>Complete the Q learning research paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> none</t>
   </si>
 </sst>
 </file>
@@ -601,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1046,6 +1070,56 @@
         <v>36</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,33 @@
   </si>
   <si>
     <t xml:space="preserve"> none</t>
+  </si>
+  <si>
+    <t>started to write DT calculation code in C++, participated for documentation</t>
+  </si>
+  <si>
+    <t>go through research paper, complete c++ code</t>
+  </si>
+  <si>
+    <t>Wrote the pseudo code for identifying trust levels according to the research paper standard, Started the c++ coding for identifying trust levels for a node, Did the documentation part for identifying trust levels</t>
+  </si>
+  <si>
+    <t>Install NS3 , Complete the c++ code</t>
+  </si>
+  <si>
+    <t>started to write spiral code in C++, prepared the doc as a team work</t>
+  </si>
+  <si>
+    <t>read the research paper to get a more idea about the IT calculation process</t>
+  </si>
+  <si>
+    <t>refined the after transmission phase pseudo code, installed the visual studio IDE, started to write transmission code in C++, prepared the document which includes all 4 pesudo codes with a description of what each code does (as a group work)</t>
+  </si>
+  <si>
+    <t>finalize the document content, read and understand about the research papers in-depth, write the remaining C++ codes</t>
+  </si>
+  <si>
+    <t>30/12/17</t>
   </si>
 </sst>
 </file>
@@ -625,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1120,6 +1147,65 @@
         <v>17</v>
       </c>
     </row>
+    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -309,6 +309,21 @@
   </si>
   <si>
     <t>30/12/17</t>
+  </si>
+  <si>
+    <t>31/12/17</t>
+  </si>
+  <si>
+    <t>Read the second research paper, Had a discussion with other members regarding first research paper</t>
+  </si>
+  <si>
+    <t>Finish reading the second research paper, Continue c++ code</t>
+  </si>
+  <si>
+    <t>Read the first research paper, Had a discussion with other members about the second research paper</t>
+  </si>
+  <si>
+    <t>finish the remaining section in the research papers, Write C++ codes</t>
   </si>
 </sst>
 </file>
@@ -652,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>17</v>
       </c>
@@ -1204,6 +1219,47 @@
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>finish the remaining section in the research papers, Write C++ codes</t>
+  </si>
+  <si>
+    <t>complete second research paper</t>
+  </si>
+  <si>
+    <t>complete the Q-learning research paper, Go through some c++ tutorials</t>
+  </si>
+  <si>
+    <t>Went through the research papers</t>
+  </si>
+  <si>
+    <t>Go through research papers more , Go through NS3 tutorials</t>
+  </si>
+  <si>
+    <t>read the research paper</t>
+  </si>
+  <si>
+    <t>start coding</t>
+  </si>
+  <si>
+    <t>I couldn't do much work except reading the remaining pages of the 1st research paper</t>
+  </si>
+  <si>
+    <t>Finish reading papers, Have a discussion with the other members, Try to come up with a flowchart for indirect trust calculation</t>
   </si>
 </sst>
 </file>
@@ -372,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,6 +411,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1262,6 +1287,69 @@
         <v>17</v>
       </c>
     </row>
+    <row r="56" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>43101</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -348,6 +348,27 @@
   </si>
   <si>
     <t>Finish reading papers, Have a discussion with the other members, Try to come up with a flowchart for indirect trust calculation</t>
+  </si>
+  <si>
+    <t>read research paper, Go through c++ tutorials</t>
+  </si>
+  <si>
+    <t>Went through the research papers, went through NS3 tutorials</t>
+  </si>
+  <si>
+    <t>Complete the c++ codes</t>
+  </si>
+  <si>
+    <t>went through C++ video</t>
+  </si>
+  <si>
+    <t>complete spiral C++ code</t>
+  </si>
+  <si>
+    <t>Went through the research paper, Wrote some remaining section of the 4th algorithm in C++</t>
+  </si>
+  <si>
+    <t>Come up with a sketch for the indirect trust calculation</t>
   </si>
 </sst>
 </file>
@@ -692,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1371,65 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>43132</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -369,6 +369,30 @@
   </si>
   <si>
     <t>Come up with a sketch for the indirect trust calculation</t>
+  </si>
+  <si>
+    <t>read research papers, Complete c++ code</t>
+  </si>
+  <si>
+    <t>start writing c++ code, Went through research paper</t>
+  </si>
+  <si>
+    <t>went through C++ tutorials</t>
+  </si>
+  <si>
+    <t>complete C++ code</t>
+  </si>
+  <si>
+    <t>Went through the discussion notes noted by the group about Axioms</t>
+  </si>
+  <si>
+    <t>Complete the c++ codes, Go through the tutorials</t>
+  </si>
+  <si>
+    <t>Went through the C++ codes, Started the discuss about the 2nd research paper within the group</t>
+  </si>
+  <si>
+    <t>Finish reading the 2nd research paper, Have an Google hangout session for the introduction of the NS3 codebase</t>
   </si>
 </sst>
 </file>
@@ -713,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1430,6 +1454,65 @@
         <v>9</v>
       </c>
     </row>
+    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>43132</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -393,6 +393,30 @@
   </si>
   <si>
     <t>Finish reading the 2nd research paper, Have an Google hangout session for the introduction of the NS3 codebase</t>
+  </si>
+  <si>
+    <t>Complete the c++ code</t>
+  </si>
+  <si>
+    <t>Went through c++ tutorials and implemented most of the code</t>
+  </si>
+  <si>
+    <t>started C++ implementing</t>
+  </si>
+  <si>
+    <t>go through ns3 tutorials</t>
+  </si>
+  <si>
+    <t>Watched c++ tutorials, Study aout 4 axioms</t>
+  </si>
+  <si>
+    <t>Complete c++ code, read research papers</t>
+  </si>
+  <si>
+    <t>Discussed about the 4 aximos and the 2 models proposed by the 2nd research paper</t>
+  </si>
+  <si>
+    <t>have the NS3 introductory session about the module structure</t>
   </si>
 </sst>
 </file>
@@ -737,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1480,7 @@
     </row>
     <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
@@ -1511,6 +1535,88 @@
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>43191</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>43221</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -417,6 +417,27 @@
   </si>
   <si>
     <t>have the NS3 introductory session about the module structure</t>
+  </si>
+  <si>
+    <t>Went through the remaining section in second research paper, Did a introductory session for ns3</t>
+  </si>
+  <si>
+    <t>Watch the NS3 YouTube videos, Start to getting familiarize with ns3 code</t>
+  </si>
+  <si>
+    <t>Implementation completed upto some extent</t>
+  </si>
+  <si>
+    <t>Watch NS3 tutorials</t>
+  </si>
+  <si>
+    <t>Completed c++ code for DT calculation</t>
+  </si>
+  <si>
+    <t>watch ns3 tutorials, Read research paper</t>
+  </si>
+  <si>
+    <t>Started watching NS3 tutorials, Changed the implemented  c++ code for algorithm 2 by including classes</t>
   </si>
 </sst>
 </file>
@@ -761,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1603,19 +1624,78 @@
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C76" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C77" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C78" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>43252</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
   <si>
     <t>Date</t>
   </si>
@@ -438,6 +438,30 @@
   </si>
   <si>
     <t>Started watching NS3 tutorials, Changed the implemented  c++ code for algorithm 2 by including classes</t>
+  </si>
+  <si>
+    <t>Started to watch the YouTube video series, Built a small network topology along with the tutorial guide</t>
+  </si>
+  <si>
+    <t>Watch the aodv videos, Get basic idea about NS3 classes for creating a small network</t>
+  </si>
+  <si>
+    <t>went through ns3 tutorials</t>
+  </si>
+  <si>
+    <t>get an idea about ns3 project structure</t>
+  </si>
+  <si>
+    <t>Watched NS3 tutorials, Made more changes to the implemented  c++ code</t>
+  </si>
+  <si>
+    <t>Watch more NS3 tutorials, Finalize the changed c++ code</t>
+  </si>
+  <si>
+    <t>watched ns3 tutorials</t>
+  </si>
+  <si>
+    <t>Cotinue watching ns3 tutorials</t>
   </si>
 </sst>
 </file>
@@ -785,7 +809,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1676,27 +1700,63 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>43252</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -462,6 +462,30 @@
   </si>
   <si>
     <t>Cotinue watching ns3 tutorials</t>
+  </si>
+  <si>
+    <t>Went through AODV and gathered information to be presented on the next hangout session</t>
+  </si>
+  <si>
+    <t>Get more familiar with NS3, Explain about AODV to the rest of the members</t>
+  </si>
+  <si>
+    <t>watched ns3 tutorials, Went through ns3 installation process further</t>
+  </si>
+  <si>
+    <t>successfully install ns3, Build network by following tutorials</t>
+  </si>
+  <si>
+    <t>Went through ns3</t>
+  </si>
+  <si>
+    <t>Fix building issues of migrating from ns3.26 to ns3. 20</t>
+  </si>
+  <si>
+    <t>Do another hangout session with the findings in the aodv module code in ns3</t>
+  </si>
+  <si>
+    <t>Watched the youtube videos about ns3, created a small network topology by following up those tutorial series, started to observe a bit about the aodv module folder in ns3</t>
   </si>
 </sst>
 </file>
@@ -806,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1759,6 +1783,65 @@
         <v>9</v>
       </c>
     </row>
+    <row r="86" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>43282</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -486,6 +486,42 @@
   </si>
   <si>
     <t>Watched the youtube videos about ns3, created a small network topology by following up those tutorial series, started to observe a bit about the aodv module folder in ns3</t>
+  </si>
+  <si>
+    <t>Fixed the build issue of migrating from ns3. 26 to ns3. 20, Created a network topology upto some extent</t>
+  </si>
+  <si>
+    <t>Go through ns3 ahead</t>
+  </si>
+  <si>
+    <t>Installed the suggested version of NS3 successfully and went through it, Watched an NS3 tutorial and tried it on</t>
+  </si>
+  <si>
+    <t>Try out more tutorials on NS3 and get familiar with it</t>
+  </si>
+  <si>
+    <t>Started to look into the aodv prototal code implementations</t>
+  </si>
+  <si>
+    <t>provide an feedback to sir with the investigation findings on existing aodv protocol implementation</t>
+  </si>
+  <si>
+    <t>Went through ns3 tutorials, Went through project structure a bit</t>
+  </si>
+  <si>
+    <t>Configure things according to our research project</t>
+  </si>
+  <si>
+    <t>Watched more NS3 tutorials and tried them</t>
+  </si>
+  <si>
+    <t>Keep on watching more tutorials and try them, Look further in to adding applications</t>
+  </si>
+  <si>
+    <t>tried out ns3 tutorails</t>
+  </si>
+  <si>
+    <t>find more ns3 tutorials and try them</t>
   </si>
 </sst>
 </file>
@@ -830,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="D75" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1842,6 +1878,106 @@
         <v>36</v>
       </c>
     </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>43313</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>43313</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -522,6 +522,48 @@
   </si>
   <si>
     <t>find more ns3 tutorials and try them</t>
+  </si>
+  <si>
+    <t>Went through AODV module in ns3</t>
+  </si>
+  <si>
+    <t>Try to find the place where we should call our implemented c++ code last week</t>
+  </si>
+  <si>
+    <t>Went through aodv prototal code implementations</t>
+  </si>
+  <si>
+    <t>Go through the aodv code further and try to understand unclear parts</t>
+  </si>
+  <si>
+    <t>Went through AODV module in the NS3 code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to figure out where to make the decision when sending packets </t>
+  </si>
+  <si>
+    <t>Went through the aodv protocol example, Identified some class flows</t>
+  </si>
+  <si>
+    <t>Do a hangout session about the class structures which related to aodv protocol</t>
+  </si>
+  <si>
+    <t>Went through the code and identified how a protocol is being plugged to a simulation</t>
+  </si>
+  <si>
+    <t>Do the google hangout session about the knowledge gathered so far, Continue to surf in the ns3 code</t>
+  </si>
+  <si>
+    <t>Played around with aodv.cc</t>
+  </si>
+  <si>
+    <t>Go through ns3 code moreover</t>
+  </si>
+  <si>
+    <t>Went through AODV example class and other references and tutorials.</t>
+  </si>
+  <si>
+    <t>Participate to the session and Learn how the protocol plugs ins to a simulation, Go through AODV more</t>
   </si>
 </sst>
 </file>
@@ -866,15 +908,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D75" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="103" style="6" customWidth="1"/>
     <col min="4" max="4" width="86.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="67.77734375" style="2" customWidth="1"/>
@@ -1921,7 +1964,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3</v>
@@ -1936,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +1993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>13</v>
       </c>
@@ -1964,7 +2007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>17</v>
       </c>
@@ -1975,6 +2018,115 @@
         <v>164</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>43374</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>43405</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -564,6 +564,24 @@
   </si>
   <si>
     <t>Participate to the session and Learn how the protocol plugs ins to a simulation, Go through AODV more</t>
+  </si>
+  <si>
+    <t>Got an idea about aodv sample file</t>
+  </si>
+  <si>
+    <t>Go through dsdv sample file get more idea about aodv</t>
+  </si>
+  <si>
+    <t>Participated in the AODV hangout session and got an idea about it, Went through the video again</t>
+  </si>
+  <si>
+    <t>Check out dsdv and dsr files as well.</t>
+  </si>
+  <si>
+    <t>Went through AODV sample files</t>
+  </si>
+  <si>
+    <t>Go through the code more and have an idea about dsdv files</t>
   </si>
 </sst>
 </file>
@@ -908,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2130,6 +2148,56 @@
         <v>9</v>
       </c>
     </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>43435</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="195">
   <si>
     <t>Date</t>
   </si>
@@ -582,6 +582,30 @@
   </si>
   <si>
     <t>Go through the code more and have an idea about dsdv files</t>
+  </si>
+  <si>
+    <t>13/1/2018</t>
+  </si>
+  <si>
+    <t>Went theough the Scheduler engine in NS3, Went through the code examples</t>
+  </si>
+  <si>
+    <t>Start writing the new protocol file</t>
+  </si>
+  <si>
+    <t>As the scheduler engine is more complex when it comes to identifying the overall procedure, decided to move on implementation</t>
+  </si>
+  <si>
+    <t>Went through ns3 documentations</t>
+  </si>
+  <si>
+    <t>Start implementing in ns3</t>
+  </si>
+  <si>
+    <t>went through ns3 code examples and documentation</t>
+  </si>
+  <si>
+    <t>start implementations</t>
   </si>
 </sst>
 </file>
@@ -926,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>13</v>
       </c>
@@ -2184,7 +2208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>17</v>
       </c>
@@ -2196,6 +2220,56 @@
       </c>
       <c r="E114" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="202">
   <si>
     <t>Date</t>
   </si>
@@ -606,6 +606,27 @@
   </si>
   <si>
     <t>start implementations</t>
+  </si>
+  <si>
+    <t>14/1/2018</t>
+  </si>
+  <si>
+    <t>Went through the code and started to create a new protocol file and tried to test it</t>
+  </si>
+  <si>
+    <t>Resolve the existing problem with ping is not being working with the new protocol file</t>
+  </si>
+  <si>
+    <t>Experimented aodv sample file</t>
+  </si>
+  <si>
+    <t>Create a new module in ns3 and try out</t>
+  </si>
+  <si>
+    <t>went through the aodv helper classes more</t>
+  </si>
+  <si>
+    <t>Try to create the new protocol file</t>
   </si>
 </sst>
 </file>
@@ -950,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="D100" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2272,6 +2293,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -627,6 +627,27 @@
   </si>
   <si>
     <t>Try to create the new protocol file</t>
+  </si>
+  <si>
+    <t>15/1/2018</t>
+  </si>
+  <si>
+    <t>Created a new module in ns3 which is same as aodv with team mates</t>
+  </si>
+  <si>
+    <t>Start coding in new module</t>
+  </si>
+  <si>
+    <t>Went through the added new NS3 module, Went through the code with the group members and discussed</t>
+  </si>
+  <si>
+    <t>Figure out how routing table works, Try to implement the code inside the new module</t>
+  </si>
+  <si>
+    <t>Went through the errors encountered while building the module and fixed them, Explained the current progress to all members and clarified the doubts, Posted a new post on ns3 Google group about the gsoc 2018 which related to this project</t>
+  </si>
+  <si>
+    <t>Observe the existing routine table interactions and try to figure out a way to implement the trust table</t>
   </si>
 </sst>
 </file>
@@ -971,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D100" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="D105" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2343,6 +2364,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="126" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -648,6 +648,60 @@
   </si>
   <si>
     <t>Observe the existing routine table interactions and try to figure out a way to implement the trust table</t>
+  </si>
+  <si>
+    <t>16/1/2018</t>
+  </si>
+  <si>
+    <t>went through the gsoc document pages on ns-3 and posted a new thread about the project</t>
+  </si>
+  <si>
+    <t>have a group discussion and try to write a new pseudo code and algorithm for indirect trust calculation</t>
+  </si>
+  <si>
+    <t>Started coding in aodv-trust module</t>
+  </si>
+  <si>
+    <t>Finalize the algorithm to calculate Indirect Trust</t>
+  </si>
+  <si>
+    <t>went through  aodv trust module part, Went through indirect trust calculation</t>
+  </si>
+  <si>
+    <t>write algorithm  for indirect trust calculation</t>
+  </si>
+  <si>
+    <t>Worked on the flow chart of calculating indirect trust.</t>
+  </si>
+  <si>
+    <t>Implement the pseudo code and the documentation for calculating the indirect trust.</t>
+  </si>
+  <si>
+    <t>17/1/2018</t>
+  </si>
+  <si>
+    <t>Started C++ implementation</t>
+  </si>
+  <si>
+    <t>Complete the implementation  of indirect trust calculation</t>
+  </si>
+  <si>
+    <t>went through the  printing routing tables code</t>
+  </si>
+  <si>
+    <t>go through the direct trust implementation</t>
+  </si>
+  <si>
+    <t>Had a discussion with the group to implement the pseudo code and the c++ code for calculating the indirect trust, Went through the completed pseudo code and tried to implement the code with c++</t>
+  </si>
+  <si>
+    <t>Do the documentation for calculating the indirect trust</t>
+  </si>
+  <si>
+    <t>Constructed the indirect trust calculation flow chart with other members, Drew the pseudo code for the above flow chart with other members</t>
+  </si>
+  <si>
+    <t>Check the current progress of the indirect trust calculation and finish it, Check the trust table implementation inside ns-3</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D105" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>17</v>
       </c>
@@ -2411,6 +2465,124 @@
         <v>206</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="234">
   <si>
     <t>Date</t>
   </si>
@@ -702,6 +702,27 @@
   </si>
   <si>
     <t>Check the current progress of the indirect trust calculation and finish it, Check the trust table implementation inside ns-3</t>
+  </si>
+  <si>
+    <t>18/1/2018</t>
+  </si>
+  <si>
+    <t>discussed and formulated the way to calculate the indirect trust with other group members, created the pseudo code for that and flow chart</t>
+  </si>
+  <si>
+    <t>do the modification for TRR message in pseudo code and flowchart, start the implementation for that algo in C++ (not in ns-3)</t>
+  </si>
+  <si>
+    <t>Implemented algorithm with team members</t>
+  </si>
+  <si>
+    <t>TRR message passing algorithm need to be done</t>
+  </si>
+  <si>
+    <t>Did the documentation for calculating the indirect trust</t>
+  </si>
+  <si>
+    <t>Discuss with the group and do the necessary modification with the group for the indirect trust calculation</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2586,6 +2607,56 @@
         <v>36</v>
       </c>
     </row>
+    <row r="141" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -723,6 +723,27 @@
   </si>
   <si>
     <t>Discuss with the group and do the necessary modification with the group for the indirect trust calculation</t>
+  </si>
+  <si>
+    <t>19/1/2018</t>
+  </si>
+  <si>
+    <t>Clarified some doubts related to TRR</t>
+  </si>
+  <si>
+    <t>Come up with an algorithm for TRR</t>
+  </si>
+  <si>
+    <t>had a group discussion and helped to resolve the existing problems with Indirect trust calculation C++ code</t>
+  </si>
+  <si>
+    <t>go through the research paper with team mates and write the pseudo code and the algo</t>
+  </si>
+  <si>
+    <t>went through  the TRR messaging process</t>
+  </si>
+  <si>
+    <t>write pseudo code and algorithm for TRR</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2657,6 +2678,56 @@
         <v>36</v>
       </c>
     </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="247">
   <si>
     <t>Date</t>
   </si>
@@ -744,6 +744,24 @@
   </si>
   <si>
     <t>write pseudo code and algorithm for TRR</t>
+  </si>
+  <si>
+    <t>Modified the way of calculating IT algorithm</t>
+  </si>
+  <si>
+    <t>Complete modified algorithm</t>
+  </si>
+  <si>
+    <t>Went through the modified method of calculating indirect trust</t>
+  </si>
+  <si>
+    <t>Help with implementing the modified algorithm</t>
+  </si>
+  <si>
+    <t>went through the modified IT calculations</t>
+  </si>
+  <si>
+    <t>Complete pseudo code according to the modified calculations</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2728,6 +2746,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="263">
   <si>
     <t>Date</t>
   </si>
@@ -762,6 +762,54 @@
   </si>
   <si>
     <t>Complete pseudo code according to the modified calculations</t>
+  </si>
+  <si>
+    <t>20/1/2018</t>
+  </si>
+  <si>
+    <t>21/1/2018</t>
+  </si>
+  <si>
+    <t>Discussed about the modifications suggested to the Indirect trust calculation procedure, modified the pseudo code with the help of others, fine tuning the code which chamara has wrote for this new modified version in C+</t>
+  </si>
+  <si>
+    <t>Solve the existing problem in the C++ code, start look into the ns-3 source code and plan the implementation</t>
+  </si>
+  <si>
+    <t>Participated for the pseudo cide modifications, Went through the modified c++ code</t>
+  </si>
+  <si>
+    <t>do the implementations</t>
+  </si>
+  <si>
+    <t>Implemented the algorithm for new IT calculation in C++ with team members</t>
+  </si>
+  <si>
+    <t>Continue the implemention in ns3</t>
+  </si>
+  <si>
+    <t>22/1/2018</t>
+  </si>
+  <si>
+    <t>Added a c++ project to TFS for everyone to code their part, Started coding on the added project. Worked on the identifying trust levels code</t>
+  </si>
+  <si>
+    <t>Finish coding the c++ coding inside the added project</t>
+  </si>
+  <si>
+    <t>integrated the direct trust c++ code to the project</t>
+  </si>
+  <si>
+    <t>solve problems and complete the direct trust implementation c++ code</t>
+  </si>
+  <si>
+    <t>Integrated direct trust calculation project with indirect trust calculation project.</t>
+  </si>
+  <si>
+    <t>Complete the c++ project</t>
+  </si>
+  <si>
+    <t>23/1/2018</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2796,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>3</v>
@@ -2794,6 +2842,129 @@
       </c>
       <c r="E154" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="271">
   <si>
     <t>Date</t>
   </si>
@@ -810,6 +810,30 @@
   </si>
   <si>
     <t>23/1/2018</t>
+  </si>
+  <si>
+    <t>I was on leave yesterday, so couldn't do anything</t>
+  </si>
+  <si>
+    <t>finish the documentation work with team, finalize the previous C++ codes</t>
+  </si>
+  <si>
+    <t>Worked on the indirect trust calculation documentation.</t>
+  </si>
+  <si>
+    <t>Finalize the c++ code for the identifying trust levels, Complete the documentation for indirect trust calculation documentation with the team.</t>
+  </si>
+  <si>
+    <t>Worked on IT documentation</t>
+  </si>
+  <si>
+    <t>complete the direct trust c++ implementations</t>
+  </si>
+  <si>
+    <t>Fixed one existing issue in the C++ project</t>
+  </si>
+  <si>
+    <t>Finalize the documentation for indirect trust calculation</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1181,7 @@
   <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2951,20 +2975,56 @@
       <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C166" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C167" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C168" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="280">
   <si>
     <t>Date</t>
   </si>
@@ -834,6 +834,33 @@
   </si>
   <si>
     <t>Finalize the documentation for indirect trust calculation</t>
+  </si>
+  <si>
+    <t>24/1/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented the code for identifying trust levels, Tried to resolve the TFS issue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve the TFS issue and integrate the project. </t>
+  </si>
+  <si>
+    <t>An issue with TFS was risen (Team Foundation Server)</t>
+  </si>
+  <si>
+    <t>completed the ditect trust calculation c++ code</t>
+  </si>
+  <si>
+    <t>solve  TFS issue</t>
+  </si>
+  <si>
+    <t>Went through the direct trust integration to a one single main function</t>
+  </si>
+  <si>
+    <t>Integrate the 2nd 3rd algorithms into the main function</t>
+  </si>
+  <si>
+    <t>25/1/2018</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3027,6 +3054,79 @@
         <v>9</v>
       </c>
     </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="286">
   <si>
     <t>Date</t>
   </si>
@@ -861,6 +861,24 @@
   </si>
   <si>
     <t>25/1/2018</t>
+  </si>
+  <si>
+    <t>went through the trust level classification code and refactored some of it with anushka</t>
+  </si>
+  <si>
+    <t>complete the GSoC project proposal and send it to ns-3 community, refactor the remaining part of the trust level classification algorithm with anushka</t>
+  </si>
+  <si>
+    <t>because of my bad health lost my courage to continue on this</t>
+  </si>
+  <si>
+    <t>since now getting recovered need to complete missing targets by integrating spiral code and take some few steps forward to move into the right track</t>
+  </si>
+  <si>
+    <t>Implemented the code for identifying trust levels, Resolved the TFS issue</t>
+  </si>
+  <si>
+    <t>Finalize the code for identifying trust levels.</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1226,7 @@
   <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3104,27 +3122,54 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C176" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C177" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="293">
   <si>
     <t>Date</t>
   </si>
@@ -879,6 +879,27 @@
   </si>
   <si>
     <t>Finalize the code for identifying trust levels.</t>
+  </si>
+  <si>
+    <t>26/1/2018</t>
+  </si>
+  <si>
+    <t>Worked in the integrated c++ project to fine tune the spiral code</t>
+  </si>
+  <si>
+    <t>Finalize c++ project with team members</t>
+  </si>
+  <si>
+    <t>checked the TFS problem with the team</t>
+  </si>
+  <si>
+    <t>completed the 4th algorithmn C++ code</t>
+  </si>
+  <si>
+    <t>Fixed the update of the trust level for trust table, Started working on entering records to recommendation table</t>
+  </si>
+  <si>
+    <t>Finish the remaining methods regarding recommendation table</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3139,7 +3160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>10</v>
       </c>
@@ -3153,12 +3174,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>17</v>
       </c>
@@ -3170,6 +3191,56 @@
       </c>
       <c r="E179" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="301">
   <si>
     <t>Date</t>
   </si>
@@ -900,6 +900,30 @@
   </si>
   <si>
     <t>Finish the remaining methods regarding recommendation table</t>
+  </si>
+  <si>
+    <t>27/1/2018</t>
+  </si>
+  <si>
+    <t>Do the hangout session for today's work, Complete the remaining integration work for classification algorithm</t>
+  </si>
+  <si>
+    <t>Discussed about the classification algorithm with Anushka and explain the modifications needs to do</t>
+  </si>
+  <si>
+    <t>Implemented spiral c++ code again upto some extent</t>
+  </si>
+  <si>
+    <t>Complete the rest with the integration</t>
+  </si>
+  <si>
+    <t>Modify the code to add direct trust value to the indirect trust table</t>
+  </si>
+  <si>
+    <t>Complete the integration</t>
+  </si>
+  <si>
+    <t>28/1/2018</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>286</v>
       </c>
@@ -3201,10 +3225,10 @@
         <v>3</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>9</v>
@@ -3215,10 +3239,10 @@
         <v>10</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>9</v>
@@ -3228,19 +3252,92 @@
       <c r="B183" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C183" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C184" s="6" t="s">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>9</v>
+      <c r="E189" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
   <si>
     <t>Date</t>
   </si>
@@ -924,6 +924,24 @@
   </si>
   <si>
     <t>28/1/2018</t>
+  </si>
+  <si>
+    <t>Went through the after transmission phase and wrote the C++ code, Check the GSoC project idea status</t>
+  </si>
+  <si>
+    <t>refactor more 4th algorihtmn code, Come up with a solution for another broadcast message sending mechanism</t>
+  </si>
+  <si>
+    <t>Checked in the Spiral c++ code to TFS</t>
+  </si>
+  <si>
+    <t>Move into ns3 source code</t>
+  </si>
+  <si>
+    <t>Fixed adding values to the recommendation table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on the reduction factor method </t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1289,7 @@
   <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3317,27 +3335,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C191" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
   <si>
     <t>Date</t>
   </si>
@@ -942,6 +942,42 @@
   </si>
   <si>
     <t xml:space="preserve">Work on the reduction factor method </t>
+  </si>
+  <si>
+    <t>29/1/2018</t>
+  </si>
+  <si>
+    <t>30/1/2018</t>
+  </si>
+  <si>
+    <t>Couldn't do much work today</t>
+  </si>
+  <si>
+    <t>Work in ns3</t>
+  </si>
+  <si>
+    <t>Ns3 environment was still unfamiliar to me.</t>
+  </si>
+  <si>
+    <t>tried to resolve the issue of getting recommendation value to the recommendation table</t>
+  </si>
+  <si>
+    <t>figure out a way to send the DT from one node's trust table to another node's recommendations table</t>
+  </si>
+  <si>
+    <t>Still have the above issue to be solved. Can't move forward without doing so.</t>
+  </si>
+  <si>
+    <t>implemented the scaling function for Direct trust between 0 - 1, Did modifications regarding adding rreq , rply ... values to calculate direct trust</t>
+  </si>
+  <si>
+    <t>work on ns3</t>
+  </si>
+  <si>
+    <t>Couldn't do any work</t>
+  </si>
+  <si>
+    <t>Do a Google Hangout session to solve the existing blockers, Start integrating the current code to ns3</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3366,12 +3402,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>17</v>
       </c>
@@ -3383,6 +3419,88 @@
       </c>
       <c r="E194" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="328">
   <si>
     <t>Date</t>
   </si>
@@ -978,6 +978,33 @@
   </si>
   <si>
     <t>Do a Google Hangout session to solve the existing blockers, Start integrating the current code to ns3</t>
+  </si>
+  <si>
+    <t>Integrate implemented algorithm to ns3 project</t>
+  </si>
+  <si>
+    <t>Fix existing issues in the integration</t>
+  </si>
+  <si>
+    <t>did modifications to Direct trust code in ns3 project</t>
+  </si>
+  <si>
+    <t>go through ns3 project and find a way to send rreq</t>
+  </si>
+  <si>
+    <t>implemented the method for sending request for GT of another node's trust table and receive it.</t>
+  </si>
+  <si>
+    <t>make necessary modifications to the above method, add it to the integrated project</t>
+  </si>
+  <si>
+    <t>integrated the C++ code into ns=3 source code with other team members</t>
+  </si>
+  <si>
+    <t>fix the existing integration issues</t>
+  </si>
+  <si>
+    <t>31/1/2018</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3487,19 +3514,78 @@
       <c r="B201" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C201" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C202" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C203" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="334">
   <si>
     <t>Date</t>
   </si>
@@ -1005,6 +1005,24 @@
   </si>
   <si>
     <t>31/1/2018</t>
+  </si>
+  <si>
+    <t>Checked the issues with building ns-3, identified that there is a encoding problem with the new classes we have added</t>
+  </si>
+  <si>
+    <t>continue with fixing the existing build problems in ns-3 with our new class files</t>
+  </si>
+  <si>
+    <t>Fixed some build issues in ns3 with team members</t>
+  </si>
+  <si>
+    <t>Complete the process of fixing build issues in ns3</t>
+  </si>
+  <si>
+    <t>Went through ns3 code and participated for fixing build issues</t>
+  </si>
+  <si>
+    <t>Find a way to implement rreq</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3573,19 +3591,69 @@
       <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C206" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C207" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="8">
+        <v>43102</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="347">
   <si>
     <t>Date</t>
   </si>
@@ -1023,6 +1023,45 @@
   </si>
   <si>
     <t>Find a way to implement rreq</t>
+  </si>
+  <si>
+    <t>Fixed all the existing issues in ns3 building process with our implemented algorithm</t>
+  </si>
+  <si>
+    <t>Start to run our implemented algorithm.</t>
+  </si>
+  <si>
+    <t>cloned the project and tried to build and run it, cloned the project and tried to build and run it.</t>
+  </si>
+  <si>
+    <t>clone, build and run the latest error free version, Add the above solution to the NS3 project</t>
+  </si>
+  <si>
+    <t>Worked on the document, explain the achievable target to each member</t>
+  </si>
+  <si>
+    <t>Try to understand the existing routing protocol procedure and get more idea on it</t>
+  </si>
+  <si>
+    <t>Worked on the documentation with team</t>
+  </si>
+  <si>
+    <t>Fix issues which are coming from when integrating our entire C++ project</t>
+  </si>
+  <si>
+    <t>worked on documentation, Went throught netAnim</t>
+  </si>
+  <si>
+    <t>Apply netAnim to ns3 code and try to visualize it</t>
+  </si>
+  <si>
+    <t>nonr</t>
+  </si>
+  <si>
+    <t>Started going through the AODV routing protocols files.</t>
+  </si>
+  <si>
+    <t>Go through the AODV routing protocols methods more and figure out a way to send TRR based on those methods.</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221:B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3629,12 +3668,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>43102</v>
       </c>
@@ -3642,18 +3681,118 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="8">
+        <v>43133</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B219" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="8">
+        <v>43161</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="353">
   <si>
     <t>Date</t>
   </si>
@@ -1062,6 +1062,24 @@
   </si>
   <si>
     <t>Go through the AODV routing protocols methods more and figure out a way to send TRR based on those methods.</t>
+  </si>
+  <si>
+    <t>Added some missing files to aodv-trust module and integrated</t>
+  </si>
+  <si>
+    <t>Further proceed with our implemented algorithm and RoutingProtocol class in ns3</t>
+  </si>
+  <si>
+    <t>went throught netAnim and got some issues while running the project</t>
+  </si>
+  <si>
+    <t>solve existing issues and go through routing protocol classes</t>
+  </si>
+  <si>
+    <t>Went through send hello and receive rreq methods to understand how the interaction between two nodes happens</t>
+  </si>
+  <si>
+    <t>Try to Implement a similar method to send TRR</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221:B224"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3785,15 +3803,42 @@
       <c r="B222" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C222" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C223" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="354">
   <si>
     <t>Date</t>
   </si>
@@ -1080,6 +1080,9 @@
   </si>
   <si>
     <t>Try to Implement a similar method to send TRR</t>
+  </si>
+  <si>
+    <t>Go with aodv-trust module in ns3</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+    <sheetView tabSelected="1" topLeftCell="D202" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3841,6 +3844,38 @@
         <v>36</v>
       </c>
     </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="8">
+        <v>43192</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="358">
   <si>
     <t>Date</t>
   </si>
@@ -1083,6 +1083,19 @@
   </si>
   <si>
     <t>Go with aodv-trust module in ns3</t>
+  </si>
+  <si>
+    <t>Went through the aodv protocol methods a bit more, Installed git bash and committed the small changes I had done to the code.
+Recalled memory on working with git.</t>
+  </si>
+  <si>
+    <t>Participate to the call tonight and help with finishing what's left on calculating direct trust, Start working on method to send TRR</t>
+  </si>
+  <si>
+    <t>Commited the changes added to the code, Went through routing protocols</t>
+  </si>
+  <si>
+    <t>Went through the code and find a way to execute RREQ and rply methods</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D202" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="L238" sqref="L238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3876,6 +3889,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="8">
+        <v>43222</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B234" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D235" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="365">
   <si>
     <t>Date</t>
   </si>
@@ -1096,6 +1096,27 @@
   </si>
   <si>
     <t>Went through the code and find a way to execute RREQ and rply methods</t>
+  </si>
+  <si>
+    <t>Briefly checked some code which has committed</t>
+  </si>
+  <si>
+    <t>Implement the direct trust calculation part into the protocol</t>
+  </si>
+  <si>
+    <t>Identified the execution order of methods inside aodv-routing-protocol.cc and did a hangout session</t>
+  </si>
+  <si>
+    <t>Find the best place to integrate our code.</t>
+  </si>
+  <si>
+    <t>Since I had to use cout instead of debugging it was a tedious task to identify with large amount of data in the terminal</t>
+  </si>
+  <si>
+    <t>Created a dev branch and committed direct trust changes to the dev branch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch the hangout session and understand the execution order of aodv routing protocol methods </t>
   </si>
 </sst>
 </file>
@@ -1440,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="L238" sqref="L238"/>
+    <sheetView tabSelected="1" topLeftCell="D219" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3933,6 +3954,56 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D235" s="5"/>
     </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="8">
+        <v>43253</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="374">
   <si>
     <t>Date</t>
   </si>
@@ -1117,6 +1117,33 @@
   </si>
   <si>
     <t xml:space="preserve">Watch the hangout session and understand the execution order of aodv routing protocol methods </t>
+  </si>
+  <si>
+    <t>Removed Singleton pattern from TrustTable and Recommendation Table classes</t>
+  </si>
+  <si>
+    <t>Removed it from BackupTable class as well</t>
+  </si>
+  <si>
+    <t>Removing Singleton pattern from BackupTable attempt was failed. So I will give a new try.</t>
+  </si>
+  <si>
+    <t>Cloned the new branch from git, Tried to integrate the direct trust calculation into the protocol</t>
+  </si>
+  <si>
+    <t>Figured out that all Singleton objects needs to be refactored, Go through the hangout session done by Chamara</t>
+  </si>
+  <si>
+    <t>Went through the aodv routing protocol files along with hangout session</t>
+  </si>
+  <si>
+    <t>Completely understand the flow of aodv-routing protocol</t>
+  </si>
+  <si>
+    <t>Watched the hangout session and got to know the order of methods execution, Removed the singleton classes added</t>
+  </si>
+  <si>
+    <t>Pull the latest version of the project and study the output</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D219" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4004,6 +4031,65 @@
         <v>9</v>
       </c>
     </row>
+    <row r="241" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A241" s="8">
+        <v>43283</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="386">
   <si>
     <t>Date</t>
   </si>
@@ -1144,6 +1144,42 @@
   </si>
   <si>
     <t>Pull the latest version of the project and study the output</t>
+  </si>
+  <si>
+    <t>went through the routing protocol and rreq method</t>
+  </si>
+  <si>
+    <t>complete direct trust and try to use rreq in that</t>
+  </si>
+  <si>
+    <t>Removed the NodeEntry class and instead of that, added the node's ip address directly as am attributes to the trust table, Edited the rest of the project according to the above mentioned change</t>
+  </si>
+  <si>
+    <t>Fix the error which occurred regarding direct trust methods after editing</t>
+  </si>
+  <si>
+    <t>had the weekly supervisor meeting, corrected the cout logs in the code</t>
+  </si>
+  <si>
+    <t>complete the trust table integration to the existing code with others</t>
+  </si>
+  <si>
+    <t>Fixed the merge conflicts and the remaining error from yesterday after removing NodeEntry class, Committed all the changes to git</t>
+  </si>
+  <si>
+    <t>Install tortoise git on Ubuntu and start committing through that, Work on figuring out how the messaged between two nodes are to be sent</t>
+  </si>
+  <si>
+    <t>Tried to find a way to fix redefinition build failure in BackupTable classes</t>
+  </si>
+  <si>
+    <t>Find how other team mates move forward in ns3</t>
+  </si>
+  <si>
+    <t>fixed the error with direct trust implementation</t>
+  </si>
+  <si>
+    <t>Go through rreq , rply , hello , err methods more</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4090,6 +4126,106 @@
         <v>36</v>
       </c>
     </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="8">
+        <v>43314</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B248" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="8">
+        <v>43345</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B254" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="394">
   <si>
     <t>Date</t>
   </si>
@@ -1180,6 +1180,30 @@
   </si>
   <si>
     <t>Go through rreq , rply , hello , err methods more</t>
+  </si>
+  <si>
+    <t>Resolved the existing issues in BackupTable related classes by removing Singleton and commited to our repo, Went through the code which others committed previous days</t>
+  </si>
+  <si>
+    <t>Discuss with my team and make a plan and execute to be true for complete the rest of the ns3 implementations</t>
+  </si>
+  <si>
+    <t>went through rreq flow and noted special points</t>
+  </si>
+  <si>
+    <t>continue working on data packet sending</t>
+  </si>
+  <si>
+    <t>Pulled the latest changes from the repo and checked for any build errors, Added the trust tables into the routing protocol</t>
+  </si>
+  <si>
+    <t>Complete the direct trust calculation pararel to the protocol execution</t>
+  </si>
+  <si>
+    <t>Didn't get to do much work since I got injured.</t>
+  </si>
+  <si>
+    <t>Work on figuring out how the messaged between two nodes are to be sent</t>
   </si>
 </sst>
 </file>
@@ -1524,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4226,6 +4250,65 @@
         <v>36</v>
       </c>
     </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="8">
+        <v>43375</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="408">
   <si>
     <t>Date</t>
   </si>
@@ -1204,6 +1204,48 @@
   </si>
   <si>
     <t>Work on figuring out how the messaged between two nodes are to be sent</t>
+  </si>
+  <si>
+    <t>Modified metadatatoolkit class and add some changes to the routing-protocol.cc regarding direct trust</t>
+  </si>
+  <si>
+    <t>Add the registered ipaddresses to the trust table</t>
+  </si>
+  <si>
+    <t>Went through the code and refactored some classes, Removed unnecessary commented blocks, Found a place which might be useful to find the neighborhood nodes</t>
+  </si>
+  <si>
+    <t>Prepare the gsoc proposal, Start the research paper writing</t>
+  </si>
+  <si>
+    <t>Downloaded and installed smartgit for Ubuntu, Searched for a way to retrieve the ip address of a device connected to the router port</t>
+  </si>
+  <si>
+    <t>Find a way to add the connected devices to a router's trust table</t>
+  </si>
+  <si>
+    <t>Went through the research papers and planned the structure of how ours should be written.</t>
+  </si>
+  <si>
+    <t>Start writing the research paper.</t>
+  </si>
+  <si>
+    <t>Went throught research paper structure, Went through routing-protool and tried to get one hop neighbours to the trust table</t>
+  </si>
+  <si>
+    <t>start writing research paper</t>
+  </si>
+  <si>
+    <t>Start writing research paper</t>
+  </si>
+  <si>
+    <t>Removed TestValueGenerator class and allow to print the routing table, Tried out a way to find the one hope neighbors</t>
+  </si>
+  <si>
+    <t>went through the methods which can retrieve the neighbor nodes of a router, had a meeting with Chamira miss about gathered some points to include in the GSoC proposal</t>
+  </si>
+  <si>
+    <t>create the project proposal for gsoc</t>
   </si>
 </sst>
 </file>
@@ -1548,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>10</v>
       </c>
@@ -4281,7 +4323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
         <v>13</v>
       </c>
@@ -4295,7 +4337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>17</v>
       </c>
@@ -4306,6 +4348,115 @@
         <v>393</v>
       </c>
       <c r="E259" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A261" s="8">
+        <v>43406</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B264" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A267" s="8">
+        <v>43436</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B270" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="413">
   <si>
     <t>Date</t>
   </si>
@@ -1246,6 +1246,21 @@
   </si>
   <si>
     <t>create the project proposal for gsoc</t>
+  </si>
+  <si>
+    <t>13/2/2018</t>
+  </si>
+  <si>
+    <t>Implemented a method retrieve neighbor nodes from routing table and to insert them in to the trust table</t>
+  </si>
+  <si>
+    <t>Finalize the above mentioned method.</t>
+  </si>
+  <si>
+    <t>Did some pages in the gsoc project proposal creation</t>
+  </si>
+  <si>
+    <t>Have a hangout session with the others to add the record to trust table</t>
   </si>
 </sst>
 </file>
@@ -1590,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4460,6 +4475,47 @@
         <v>36</v>
       </c>
     </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="428">
   <si>
     <t>Date</t>
   </si>
@@ -1261,6 +1261,51 @@
   </si>
   <si>
     <t>Have a hangout session with the others to add the record to trust table</t>
+  </si>
+  <si>
+    <t>14/2/2018</t>
+  </si>
+  <si>
+    <t>Completed the method for populating trust table with routing table node entries.</t>
+  </si>
+  <si>
+    <t>Use the above method for trust table calculation and remove the dummy trust table value generation.</t>
+  </si>
+  <si>
+    <t>Tried out a way to visualize behaviors of aodv-routing protocol using netanim</t>
+  </si>
+  <si>
+    <t>Complete above mentioned attempt and move forward with the team</t>
+  </si>
+  <si>
+    <t>went through updating routing table methods</t>
+  </si>
+  <si>
+    <t>Try to calculate direct trust for routing table node entries</t>
+  </si>
+  <si>
+    <t>had a discussion with anushka about identifying the neighbour nodes and add them to the trust table, tried few methods which might be the correct places to do that operations, but couldn't succeed</t>
+  </si>
+  <si>
+    <t>try to fix identify the correct place and fill the trust tab;e</t>
+  </si>
+  <si>
+    <t>15/2/2018</t>
+  </si>
+  <si>
+    <t>Visualize aodv-routing protocol simulation using netanim</t>
+  </si>
+  <si>
+    <t>Go through which Anushka has committed and move forward with that code</t>
+  </si>
+  <si>
+    <t>Unable to set cordinations for nodes without packet loosing in netanim</t>
+  </si>
+  <si>
+    <t>double checked everything I had done and committed for others to continue their work with</t>
+  </si>
+  <si>
+    <t>Change identifying trust levels method according to the newly added methods</t>
   </si>
 </sst>
 </file>
@@ -1605,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E272" sqref="E272"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4492,17 +4537,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>17</v>
       </c>
@@ -4514,6 +4559,106 @@
       </c>
       <c r="E275" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A277" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B279" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B280" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="443">
   <si>
     <t>Date</t>
   </si>
@@ -1306,6 +1306,51 @@
   </si>
   <si>
     <t>Change identifying trust levels method according to the newly added methods</t>
+  </si>
+  <si>
+    <t>16/2/2018</t>
+  </si>
+  <si>
+    <t>Went through the code which Anushka has committed</t>
+  </si>
+  <si>
+    <t>Discuss with the team to get clarified and optimize that implementation</t>
+  </si>
+  <si>
+    <t>Couldn't do much work. Traveling took most of the day.</t>
+  </si>
+  <si>
+    <t>Have a Skype call with the team and figure out the remaining issues</t>
+  </si>
+  <si>
+    <t>went through the code and tried to find a suitable place to add the new method</t>
+  </si>
+  <si>
+    <t>Have a call with teammates and solve existing issues</t>
+  </si>
+  <si>
+    <t>couldn't do much work</t>
+  </si>
+  <si>
+    <t>do the google hangout session with the team</t>
+  </si>
+  <si>
+    <t>17/2/2018</t>
+  </si>
+  <si>
+    <t>Had a meeting with supervisor and the team</t>
+  </si>
+  <si>
+    <t>Find a way to add the missing nodes to trust table which are listed in routing table</t>
+  </si>
+  <si>
+    <t>Unable to find a way to add missing entries yet by following the routing table add method. So hoping to try out add only that missing entries in another place</t>
+  </si>
+  <si>
+    <t>removed the unnecessary logs and understood the flow of the methods which are being called, did a hangout session, but due to connectivity issues, couldn't cover the entire session</t>
+  </si>
+  <si>
+    <t>find a way to debug the program, raise the question to ns-3 community about identifying the neighbour nodes</t>
   </si>
 </sst>
 </file>
@@ -1650,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="E285" sqref="E285"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="F297" sqref="F297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4661,6 +4706,106 @@
         <v>9</v>
       </c>
     </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B290" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A292" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B294" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="448">
   <si>
     <t>Date</t>
   </si>
@@ -1351,6 +1351,21 @@
   </si>
   <si>
     <t>find a way to debug the program, raise the question to ns-3 community about identifying the neighbour nodes</t>
+  </si>
+  <si>
+    <t>18/2/2018</t>
+  </si>
+  <si>
+    <t>Searched how to debug ns-3, Went through to find a way to get the neighborhood nodes</t>
+  </si>
+  <si>
+    <t>Debug the ns-3 and see the runtime values</t>
+  </si>
+  <si>
+    <t>Went through the code and tried to find all the neighbour nodes</t>
+  </si>
+  <si>
+    <t>Go through debugging</t>
   </si>
 </sst>
 </file>
@@ -1695,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="F297" sqref="F297"/>
+      <selection activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4806,6 +4821,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B298" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B300" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="455">
   <si>
     <t>Date</t>
   </si>
@@ -1366,6 +1366,27 @@
   </si>
   <si>
     <t>Go through debugging</t>
+  </si>
+  <si>
+    <t>19/2/2018</t>
+  </si>
+  <si>
+    <t>went through the blogs to debug ns-3</t>
+  </si>
+  <si>
+    <t>try to debug the program</t>
+  </si>
+  <si>
+    <t>Start writing the project charter</t>
+  </si>
+  <si>
+    <t>Debug the program to see runtime values</t>
+  </si>
+  <si>
+    <t>Removed the couts used to identify the execution order of methods, Called the populate trust table method on a specific place and committed, Went through the project charter and started filling some details</t>
+  </si>
+  <si>
+    <t>Complete the project charter, Discuss further details about debugging through Skype call and figure out the reason for missing out some entries in the trust table</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4862,6 +4883,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B304" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="458">
   <si>
     <t>Date</t>
   </si>
@@ -1387,6 +1387,15 @@
   </si>
   <si>
     <t>Complete the project charter, Discuss further details about debugging through Skype call and figure out the reason for missing out some entries in the trust table</t>
+  </si>
+  <si>
+    <t>20/2/2018</t>
+  </si>
+  <si>
+    <t>Removed the MetaDataToolKit class and added all its functionalities tp the trust table, Finalized the method to populate the trust table and fixed the issue of missing out some neighbor node entries</t>
+  </si>
+  <si>
+    <t>Fix the issue of packets not being incremented in the table for method calls</t>
   </si>
 </sst>
 </file>
@@ -1731,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="E305" sqref="E305"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4919,7 +4928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B305" s="2" t="s">
         <v>17</v>
       </c>
@@ -4931,6 +4940,38 @@
       </c>
       <c r="E305" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B309" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B310" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="468">
   <si>
     <t>Date</t>
   </si>
@@ -1396,6 +1396,36 @@
   </si>
   <si>
     <t>Fix the issue of packets not being incremented in the table for method calls</t>
+  </si>
+  <si>
+    <t>21/2/2018</t>
+  </si>
+  <si>
+    <t>Looked into the existing problem of counter values aren't being updated in the trust table record</t>
+  </si>
+  <si>
+    <t>Find out a way to debug the ns3</t>
+  </si>
+  <si>
+    <t>Worked on project charter, Went through the existing issue in incrementing rreq</t>
+  </si>
+  <si>
+    <t>Complete the charter</t>
+  </si>
+  <si>
+    <t>In the existing implemented ns3 project rreq is incremented at the very beginning only once by node 0</t>
+  </si>
+  <si>
+    <t>Tried to figure out the issue with increments on the trust table with the team</t>
+  </si>
+  <si>
+    <t>Change identifying trust levels method according to the current trust table that's used and it's values</t>
+  </si>
+  <si>
+    <t>Tried to solve the issue for rreq increment, worked on project charter</t>
+  </si>
+  <si>
+    <t>Complete project charter</t>
   </si>
 </sst>
 </file>
@@ -1740,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="E314" sqref="E314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4974,6 +5004,65 @@
         <v>9</v>
       </c>
     </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B315" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="474">
   <si>
     <t>Date</t>
   </si>
@@ -1426,6 +1426,24 @@
   </si>
   <si>
     <t>Complete project charter</t>
+  </si>
+  <si>
+    <t>22/2/2018</t>
+  </si>
+  <si>
+    <t>Wrote the workload for member 1 and member 2 in project charter document</t>
+  </si>
+  <si>
+    <t>complete the project charter document, start writing the GSoC project proposal</t>
+  </si>
+  <si>
+    <t>Couldn't do much work</t>
+  </si>
+  <si>
+    <t>Complete the project charter</t>
+  </si>
+  <si>
+    <t>Filled information in the project charter with the team</t>
   </si>
 </sst>
 </file>
@@ -1770,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="E314" sqref="E314"/>
+      <selection activeCell="E320" sqref="E320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5063,6 +5081,56 @@
         <v>36</v>
       </c>
     </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B319" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B320" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="479">
   <si>
     <t>Date</t>
   </si>
@@ -1444,6 +1444,21 @@
   </si>
   <si>
     <t>Filled information in the project charter with the team</t>
+  </si>
+  <si>
+    <t>23/2/2018</t>
+  </si>
+  <si>
+    <t>Completed the project charter with team</t>
+  </si>
+  <si>
+    <t>Work on ns3 again</t>
+  </si>
+  <si>
+    <t>Worked on project charter</t>
+  </si>
+  <si>
+    <t>continue work in ns3</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="E320" sqref="E320"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="E324" sqref="E324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5131,6 +5146,47 @@
         <v>36</v>
       </c>
     </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B323" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B325" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="483">
   <si>
     <t>Date</t>
   </si>
@@ -1459,6 +1459,18 @@
   </si>
   <si>
     <t>continue work in ns3</t>
+  </si>
+  <si>
+    <t>24/2/2018</t>
+  </si>
+  <si>
+    <t>Found a way to get the number of RREQ and add it to Trust Table, Tried to get the number of reply and add it to Trust Table</t>
+  </si>
+  <si>
+    <t>Find a way get reply, hello, err count as well</t>
+  </si>
+  <si>
+    <t>Unable to find a better place to get the rply count yet</t>
   </si>
 </sst>
 </file>
@@ -1803,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="E324" sqref="E324"/>
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5187,6 +5199,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B329" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B330" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="504">
   <si>
     <t>Date</t>
   </si>
@@ -1471,6 +1471,70 @@
   </si>
   <si>
     <t>Unable to find a better place to get the rply count yet</t>
+  </si>
+  <si>
+    <t>25/2/2018</t>
+  </si>
+  <si>
+    <t>26/2/2018</t>
+  </si>
+  <si>
+    <t>27/2/2018</t>
+  </si>
+  <si>
+    <t>Had a progress status meeting with the team, Define goals for everyone, Looked into sendTRR method implementation location in the code</t>
+  </si>
+  <si>
+    <t>Fix the issue with sending the TRR with the help from Anushka</t>
+  </si>
+  <si>
+    <t>Tried to visualize the nodes using netanim</t>
+  </si>
+  <si>
+    <t>continue work in netanim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a class for the TRR header and implemented necessary methods, Called the implemented method Inside aodv routing protocol. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete procedure of sending the TRR packet </t>
+  </si>
+  <si>
+    <t>Figured out the issue of printing same value for indirect trust in visual studio code, Start writing the introduction part of proposal</t>
+  </si>
+  <si>
+    <t>Add the fixed issue in indirect trust calculation code to ns3, Work in netanim with Sadunika</t>
+  </si>
+  <si>
+    <t>Implemented the control packet counters and maintained those values with the help of team members, Created an data packet simulation with anushka</t>
+  </si>
+  <si>
+    <t>Start implementing send TRR message to get the recommendation values</t>
+  </si>
+  <si>
+    <t>Resolved the issue and Incremented NDF,NDR successfully, Called calculating direct and indirect trusts and made the modification for them to be updated in the table correctly, Worked on the Interaction count increment with jude, Created the method for populating recommendation table</t>
+  </si>
+  <si>
+    <t>Work on sending the TRR with the team, Populate the rest of the columns in recommendation table</t>
+  </si>
+  <si>
+    <t>went through the modifications in trust table</t>
+  </si>
+  <si>
+    <t>Work on sending TRR message</t>
+  </si>
+  <si>
+    <t>Completed trust table and updating all its methods with the team, Started implementing the simulator</t>
+  </si>
+  <si>
+    <t>Complete the packet forwarding and receiving counts, complete the simulator</t>
+  </si>
+  <si>
+    <t>Completed adding count variables to trust table for calculating control packets</t>
+  </si>
+  <si>
+    <t>Complete the implementation of data packets transmission</t>
   </si>
 </sst>
 </file>
@@ -1815,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="E328" sqref="E328"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="E333" sqref="E333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5231,6 +5295,156 @@
         <v>17</v>
       </c>
     </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B334" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B335" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A337" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B338" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B339" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B340" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A342" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B345" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="509">
   <si>
     <t>Date</t>
   </si>
@@ -1535,6 +1535,21 @@
   </si>
   <si>
     <t>Complete the implementation of data packets transmission</t>
+  </si>
+  <si>
+    <t>28/2/2018</t>
+  </si>
+  <si>
+    <t>Tried to fix the issue with maturity level not being updated.</t>
+  </si>
+  <si>
+    <t>Fix the maturity level update in the recommendations tables, Fix sending TRR with the team</t>
+  </si>
+  <si>
+    <t>Wrote literature review in the proposal</t>
+  </si>
+  <si>
+    <t>Work in netanim with Sadunika</t>
   </si>
 </sst>
 </file>
@@ -1879,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E345"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="E333" sqref="E333"/>
+      <selection activeCell="E348" sqref="E348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5445,6 +5460,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B349" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B350" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="516">
   <si>
     <t>Date</t>
   </si>
@@ -1550,6 +1550,27 @@
   </si>
   <si>
     <t>Work in netanim with Sadunika</t>
+  </si>
+  <si>
+    <t>Worked in netanim and pyviz with Sadunika</t>
+  </si>
+  <si>
+    <t>Find a way to visualize all the behaviors of nodes</t>
+  </si>
+  <si>
+    <t>When visualize using pyviz one node get disappeared during the simulation later</t>
+  </si>
+  <si>
+    <t>worked in netanim and tried pyviz to visualize nodes</t>
+  </si>
+  <si>
+    <t>try to solve the probkem with the disapear of one node while visualizing</t>
+  </si>
+  <si>
+    <t>Implemented sendTRR and recvTRR methods with jude, Made some changes to indirect trust calculation class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve the issue with TRR packet after discussing with Ms. sameera. </t>
   </si>
 </sst>
 </file>
@@ -1894,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="E348" sqref="E348"/>
+    <sheetView tabSelected="1" topLeftCell="D338" workbookViewId="0">
+      <selection activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5501,6 +5522,56 @@
         <v>36</v>
       </c>
     </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="8">
+        <v>43103</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="519">
   <si>
     <t>Date</t>
   </si>
@@ -1571,6 +1571,15 @@
   </si>
   <si>
     <t xml:space="preserve">Resolve the issue with TRR packet after discussing with Ms. sameera. </t>
+  </si>
+  <si>
+    <t>Find a solution for yesterday pyviz issue</t>
+  </si>
+  <si>
+    <t>Edited the proposal doc, Went too meet Ms.chameera and discussed about a possible solution for the TRR issue</t>
+  </si>
+  <si>
+    <t>Start implementing the solution suggested</t>
   </si>
 </sst>
 </file>
@@ -1915,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E355"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D338" workbookViewId="0">
-      <selection activeCell="E355" sqref="E355"/>
+    <sheetView tabSelected="1" topLeftCell="D343" workbookViewId="0">
+      <selection activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5530,7 +5539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>10</v>
       </c>
@@ -5544,7 +5553,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B354" s="2" t="s">
         <v>13</v>
       </c>
@@ -5558,7 +5567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
         <v>17</v>
       </c>
@@ -5569,6 +5578,47 @@
         <v>515</v>
       </c>
       <c r="E355" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="8">
+        <v>43134</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B358" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B359" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B360" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E360" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="523">
   <si>
     <t>Date</t>
   </si>
@@ -1580,6 +1580,18 @@
   </si>
   <si>
     <t>Start implementing the solution suggested</t>
+  </si>
+  <si>
+    <t>Tried to solve the problem with pyviz  visualizer</t>
+  </si>
+  <si>
+    <t>work in project proposal</t>
+  </si>
+  <si>
+    <t>Update the literature review part in the proposal</t>
+  </si>
+  <si>
+    <t>Discuss with the team to plan the next week of the project</t>
   </si>
 </sst>
 </file>
@@ -1924,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D343" workbookViewId="0">
-      <selection activeCell="E360" sqref="E360"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5622,6 +5634,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="8">
+        <v>43162</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B363" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B364" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B365" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="526">
   <si>
     <t>Date</t>
   </si>
@@ -1592,6 +1592,15 @@
   </si>
   <si>
     <t>Discuss with the team to plan the next week of the project</t>
+  </si>
+  <si>
+    <t>went through the existing problem we had with the TRR receive implementation and discussed it with miss, Identified a solution to overcome the problem</t>
+  </si>
+  <si>
+    <t>implement the RecvTRR() according to the correct way</t>
+  </si>
+  <si>
+    <t>Work on the proposal</t>
   </si>
 </sst>
 </file>
@@ -1936,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="E363" sqref="E363"/>
+    <sheetView tabSelected="1" topLeftCell="D346" workbookViewId="0">
+      <selection activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5675,6 +5684,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="367" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A367" s="8">
+        <v>43193</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B368" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="530">
   <si>
     <t>Date</t>
   </si>
@@ -1601,6 +1601,18 @@
   </si>
   <si>
     <t>Work on the proposal</t>
+  </si>
+  <si>
+    <t>Updated the literature review part in the proposal</t>
+  </si>
+  <si>
+    <t>Work on the rest of the document</t>
+  </si>
+  <si>
+    <t>Discussed about the solution, Merged the dev branch to master</t>
+  </si>
+  <si>
+    <t>Implemente the changes</t>
   </si>
 </sst>
 </file>
@@ -1945,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D346" workbookViewId="0">
-      <selection activeCell="E368" sqref="E368"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="E372" sqref="E372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5715,13 +5727,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B369" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="8">
+        <v>43223</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B373" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B374" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B375" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="538">
   <si>
     <t>Date</t>
   </si>
@@ -1613,6 +1613,30 @@
   </si>
   <si>
     <t>Implemente the changes</t>
+  </si>
+  <si>
+    <t>Refactored and added objectives to proposal document</t>
+  </si>
+  <si>
+    <t>Complete the refactoring of the proposal doc</t>
+  </si>
+  <si>
+    <t>Implemented the TRR methods further with the team, Added a TRRHandler class and a table to maintain TRR data</t>
+  </si>
+  <si>
+    <t>Focus on finalizing the TRR methods, Edit the proposal document</t>
+  </si>
+  <si>
+    <t>Work on TRR method with the team</t>
+  </si>
+  <si>
+    <t>write  the propsal document</t>
+  </si>
+  <si>
+    <t>Implemented the basic methods in a new class, Introduced a new table to hold the recommendation values</t>
+  </si>
+  <si>
+    <t>Solve the existing build errora</t>
   </si>
 </sst>
 </file>
@@ -1957,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="E372" sqref="E372"/>
+    <sheetView tabSelected="1" topLeftCell="D358" workbookViewId="0">
+      <selection activeCell="E377" sqref="E377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5778,6 +5802,65 @@
         <v>17</v>
       </c>
     </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="8">
+        <v>43254</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B378" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B379" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B380" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="545">
   <si>
     <t>Date</t>
   </si>
@@ -1637,6 +1637,27 @@
   </si>
   <si>
     <t>Solve the existing build errora</t>
+  </si>
+  <si>
+    <t>13/3/2018</t>
+  </si>
+  <si>
+    <t>Resolved the build errors and merged the code into master branch, Reviewed the project proposal document</t>
+  </si>
+  <si>
+    <t>Check the sendTRR functionality</t>
+  </si>
+  <si>
+    <t>Read new research papers and added some important parts under literature review, Discussed with Chamira miss on the project proposal</t>
+  </si>
+  <si>
+    <t>Edit proposal according to  feedback given by miss, Try add some more research papers</t>
+  </si>
+  <si>
+    <t>Searched more research papers</t>
+  </si>
+  <si>
+    <t>write the proposal with new research papers</t>
   </si>
 </sst>
 </file>
@@ -1981,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D358" workbookViewId="0">
-      <selection activeCell="E377" sqref="E377"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="E384" sqref="E384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5861,6 +5882,56 @@
         <v>9</v>
       </c>
     </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B383" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B384" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="557">
   <si>
     <t>Date</t>
   </si>
@@ -1658,6 +1658,42 @@
   </si>
   <si>
     <t>write the proposal with new research papers</t>
+  </si>
+  <si>
+    <t>14/3/2018</t>
+  </si>
+  <si>
+    <t>Updated the content of research gap and the problem in proposal</t>
+  </si>
+  <si>
+    <t>Add another research paper content for the literature review</t>
+  </si>
+  <si>
+    <t>Fixed some of the errors from the modified code regarding sending TRR</t>
+  </si>
+  <si>
+    <t>Fix the remaining error, Work on the proposal document</t>
+  </si>
+  <si>
+    <t>Went through the code to figure out the scheduling place to calculate the indirect trust, Started to create gsoc proposal</t>
+  </si>
+  <si>
+    <t>Figure out the proper place to schedule the indirect trust calculation</t>
+  </si>
+  <si>
+    <t>15/3/2018</t>
+  </si>
+  <si>
+    <t>Gathered information about scalability research paper</t>
+  </si>
+  <si>
+    <t>Added another research paper content for the literature review</t>
+  </si>
+  <si>
+    <t>Worked on the gsoc proposal</t>
+  </si>
+  <si>
+    <t>Complete the indirect trust calculation</t>
   </si>
 </sst>
 </file>
@@ -2002,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="E384" sqref="E384"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5927,8 +5963,99 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B388" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B389" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B390" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B393" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B394" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B395" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="562">
   <si>
     <t>Date</t>
   </si>
@@ -1694,6 +1694,21 @@
   </si>
   <si>
     <t>Complete the indirect trust calculation</t>
+  </si>
+  <si>
+    <t>16/3/2018</t>
+  </si>
+  <si>
+    <t>scheduled the indirect trust calculation, but the trust table values aren't still getting updated</t>
+  </si>
+  <si>
+    <t>go through the proposal and refine it further</t>
+  </si>
+  <si>
+    <t>Add the research paper content from scalability maturity based model</t>
+  </si>
+  <si>
+    <t>Add another research paper content for literature review</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E395"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="E392" sqref="E392"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="E398" sqref="E398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6059,6 +6074,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B398" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B399" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B400" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="569">
   <si>
     <t>Date</t>
   </si>
@@ -1709,6 +1709,27 @@
   </si>
   <si>
     <t>Add another research paper content for literature review</t>
+  </si>
+  <si>
+    <t>17/3/2018</t>
+  </si>
+  <si>
+    <t>Add another research paper</t>
+  </si>
+  <si>
+    <t>Gathered information from a research paper</t>
+  </si>
+  <si>
+    <t>18/3/2018</t>
+  </si>
+  <si>
+    <t>Added another research paper content</t>
+  </si>
+  <si>
+    <t>Went through the code and figured out that receive trr is not working as expected</t>
+  </si>
+  <si>
+    <t>Do a root cause analysis for not receiving trr and come up with a solution</t>
   </si>
 </sst>
 </file>
@@ -2053,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="E398" sqref="E398"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="E407" sqref="E407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6115,6 +6136,79 @@
         <v>17</v>
       </c>
     </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B403" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B404" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B405" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B408" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B409" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B410" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="572">
   <si>
     <t>Date</t>
   </si>
@@ -1730,6 +1730,15 @@
   </si>
   <si>
     <t>Do a root cause analysis for not receiving trr and come up with a solution</t>
+  </si>
+  <si>
+    <t>19/3/2018</t>
+  </si>
+  <si>
+    <t>Added the secure routing with aodv research paper</t>
+  </si>
+  <si>
+    <t>Try to add another research paper</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E410"/>
+  <dimension ref="A1:E415"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="E407" sqref="E407"/>
+      <selection activeCell="E413" sqref="E413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6209,6 +6218,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B413" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B414" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B415" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="580">
   <si>
     <t>Date</t>
   </si>
@@ -1739,6 +1739,30 @@
   </si>
   <si>
     <t>Try to add another research paper</t>
+  </si>
+  <si>
+    <t>20/3/2018</t>
+  </si>
+  <si>
+    <t>Added the trusted AODV research paper</t>
+  </si>
+  <si>
+    <t>Edit the proposal</t>
+  </si>
+  <si>
+    <t>Tried to improve the exciting pyviz visualization</t>
+  </si>
+  <si>
+    <t>Go through more tutorials about pyviz</t>
+  </si>
+  <si>
+    <t>Went through the gsoc proposals, Started the documentation section in the porposal</t>
+  </si>
+  <si>
+    <t>Submit the sample draft of the gsoc proposal</t>
+  </si>
+  <si>
+    <t>My laptop charging cable broke, therefore I cannot proceed with the aodv code work</t>
   </si>
 </sst>
 </file>
@@ -2083,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E415"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="E413" sqref="E413"/>
+      <selection activeCell="E417" sqref="E417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6250,6 +6274,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="417" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A417" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B418" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B419" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B420" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="590">
   <si>
     <t>Date</t>
   </si>
@@ -1763,6 +1763,36 @@
   </si>
   <si>
     <t>My laptop charging cable broke, therefore I cannot proceed with the aodv code work</t>
+  </si>
+  <si>
+    <t>21/3/2018</t>
+  </si>
+  <si>
+    <t>Couldn't proceed with any work as much laptop has broken.</t>
+  </si>
+  <si>
+    <t>submit the GSoC proposal, investigate the root cause for not receiving the TRR response</t>
+  </si>
+  <si>
+    <t>Added the EBoX and Qos research papers</t>
+  </si>
+  <si>
+    <t>22/3/2018</t>
+  </si>
+  <si>
+    <t>Tried out pyviz visualization</t>
+  </si>
+  <si>
+    <t>Worked on the gsoc proposal and submitted for review</t>
+  </si>
+  <si>
+    <t>Do the modifications which suggested by the mentor on the proposal, Investigate on the receive trr method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started to fix an error in the current code in dev branch, Read the added sectiona documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve the error and commit the code, Work on the documentation more. </t>
   </si>
 </sst>
 </file>
@@ -2107,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E420"/>
+  <dimension ref="A1:E430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="E417" sqref="E417"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="E430" sqref="E430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6324,6 +6354,97 @@
         <v>17</v>
       </c>
     </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B423" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B424" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B425" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B428" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B429" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B430" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C430" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="597">
   <si>
     <t>Date</t>
   </si>
@@ -1793,6 +1793,27 @@
   </si>
   <si>
     <t xml:space="preserve">Resolve the error and commit the code, Work on the documentation more. </t>
+  </si>
+  <si>
+    <t>23/3/2018</t>
+  </si>
+  <si>
+    <t>Started editing objectives</t>
+  </si>
+  <si>
+    <t>Refactor the proposal according to feedback given by miss</t>
+  </si>
+  <si>
+    <t>Fixed a couple of runtime errors in the project and committed them.</t>
+  </si>
+  <si>
+    <t>Resolve the remaining error, Help completing the documentation</t>
+  </si>
+  <si>
+    <t>went through the research papers added in documentation</t>
+  </si>
+  <si>
+    <t>get the vm from sajith and try pyviz visualizer</t>
   </si>
 </sst>
 </file>
@@ -2137,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E430"/>
+  <dimension ref="A1:E435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="E430" sqref="E430"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="E434" sqref="E434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6445,6 +6466,56 @@
         <v>9</v>
       </c>
     </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B433" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B434" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B435" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C435" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="600">
   <si>
     <t>Date</t>
   </si>
@@ -1814,6 +1814,15 @@
   </si>
   <si>
     <t>get the vm from sajith and try pyviz visualizer</t>
+  </si>
+  <si>
+    <t>24/3/2018</t>
+  </si>
+  <si>
+    <t>Update the proposal document</t>
+  </si>
+  <si>
+    <t>Get feedback from the supervisor and plan this final week before the proposal presentation</t>
   </si>
 </sst>
 </file>
@@ -2158,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E435"/>
+  <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="E434" sqref="E434"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="E438" sqref="E438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6474,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B433" s="2" t="s">
         <v>10</v>
       </c>
@@ -6488,7 +6497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B434" s="2" t="s">
         <v>13</v>
       </c>
@@ -6502,7 +6511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B435" s="2" t="s">
         <v>17</v>
       </c>
@@ -6514,6 +6523,38 @@
       </c>
       <c r="E435" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B438" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B439" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B440" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="606">
   <si>
     <t>Date</t>
   </si>
@@ -1823,6 +1823,24 @@
   </si>
   <si>
     <t>Get feedback from the supervisor and plan this final week before the proposal presentation</t>
+  </si>
+  <si>
+    <t>Update the proposal with the team</t>
+  </si>
+  <si>
+    <t>Add content from the thesis to our proposal</t>
+  </si>
+  <si>
+    <t>went through the code and looked for a solution, posted the question in ns3 forum</t>
+  </si>
+  <si>
+    <t>try to modifiy the sendTRR method to work same as broadcast</t>
+  </si>
+  <si>
+    <t>Updated the proposal document with the team</t>
+  </si>
+  <si>
+    <t>Start preparing proposal presentation slides</t>
   </si>
 </sst>
 </file>
@@ -2167,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E440"/>
+  <dimension ref="A1:E445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="E438" sqref="E438"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="E445" sqref="E445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6557,6 +6575,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C442" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B443" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C443" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B444" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B445" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C445" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="617">
   <si>
     <t>Date</t>
   </si>
@@ -1841,6 +1841,39 @@
   </si>
   <si>
     <t>Start preparing proposal presentation slides</t>
+  </si>
+  <si>
+    <t>25/3/2018</t>
+  </si>
+  <si>
+    <t>26/3/2018</t>
+  </si>
+  <si>
+    <t>Started editing proposal according to the given format</t>
+  </si>
+  <si>
+    <t>Start adding new contents from the thesis which is going to receive</t>
+  </si>
+  <si>
+    <t>Started making the presentation slides</t>
+  </si>
+  <si>
+    <t>Work on the presentation slides, Design the necessary high level diagrams for the presentation</t>
+  </si>
+  <si>
+    <t>27/3/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the presentation slides </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Miss Chamira and finalize the high-level Diagram, Finalize the presentation slides </t>
+  </si>
+  <si>
+    <t>Worked on presentation</t>
+  </si>
+  <si>
+    <t>draw flow charts and finalize the presentation</t>
   </si>
 </sst>
 </file>
@@ -2185,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:E455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="E445" sqref="E445"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="E454" sqref="E454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6577,7 +6610,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>3</v>
@@ -6622,6 +6655,88 @@
         <v>605</v>
       </c>
       <c r="E445" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B448" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B449" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B450" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B453" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B454" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B455" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E455" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="629">
   <si>
     <t>Date</t>
   </si>
@@ -1874,6 +1874,42 @@
   </si>
   <si>
     <t>draw flow charts and finalize the presentation</t>
+  </si>
+  <si>
+    <t>28/3/2018</t>
+  </si>
+  <si>
+    <t>Edit the new proposal document with given format</t>
+  </si>
+  <si>
+    <t>Complete the proposal</t>
+  </si>
+  <si>
+    <t>worked on documentation and draw the flowcharts</t>
+  </si>
+  <si>
+    <t>edit the DT calculation part according to the changes</t>
+  </si>
+  <si>
+    <t>Finalized the presentation slides, Finalized the high-level Diagram</t>
+  </si>
+  <si>
+    <t>Prepare for the presentation with the team</t>
+  </si>
+  <si>
+    <t>29/3/2018</t>
+  </si>
+  <si>
+    <t>Updated the new proposal document</t>
+  </si>
+  <si>
+    <t>Submit the proposal for review</t>
+  </si>
+  <si>
+    <t>Drew the system diagram for the overall process with the team, Edited presentation slides</t>
+  </si>
+  <si>
+    <t>Finish the presentation slides</t>
   </si>
 </sst>
 </file>
@@ -2218,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E455"/>
+  <dimension ref="A1:E465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="E454" sqref="E454"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="E465" sqref="E465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6740,6 +6776,97 @@
         <v>9</v>
       </c>
     </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B458" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B459" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B460" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B463" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B464" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B465" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{801F4781-09BD-4339-AE9A-079635E79F99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="631">
   <si>
     <t>Date</t>
   </si>
@@ -1910,12 +1911,18 @@
   </si>
   <si>
     <t>Finish the presentation slides</t>
+  </si>
+  <si>
+    <t>30/3/2018</t>
+  </si>
+  <si>
+    <t>Submit the document for reviewing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2253,11 +2260,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E465"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="E465" sqref="E465"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="E468" sqref="E468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6853,7 +6860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B465" s="2" t="s">
         <v>17</v>
       </c>
@@ -6865,6 +6872,38 @@
       </c>
       <c r="E465" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B468" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B469" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B470" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{801F4781-09BD-4339-AE9A-079635E79F99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{499F6E36-E417-47C7-A0C3-00E8B07A34D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="639">
   <si>
     <t>Date</t>
   </si>
@@ -1917,6 +1917,30 @@
   </si>
   <si>
     <t>Submit the document for reviewing</t>
+  </si>
+  <si>
+    <t>Edited the abstract content in the proposal document, Did some modifications to the presentation slides</t>
+  </si>
+  <si>
+    <t>Change the slides and finalize them as Miss chameera told</t>
+  </si>
+  <si>
+    <t>Submitted the proposal for reviewing</t>
+  </si>
+  <si>
+    <t>Start work on presentation</t>
+  </si>
+  <si>
+    <t>Worked on the slides with team members, Discussed with miss and planned the presentation</t>
+  </si>
+  <si>
+    <t>Work on the rest of slides</t>
+  </si>
+  <si>
+    <t>Worked on the presentation slides with the team</t>
+  </si>
+  <si>
+    <t>Finalize the presentation slides</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E470"/>
+  <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="E468" sqref="E468"/>
+    <sheetView tabSelected="1" topLeftCell="D456" workbookViewId="0">
+      <selection activeCell="E480" sqref="E480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6906,6 +6930,88 @@
         <v>17</v>
       </c>
     </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="8">
+        <v>43104</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B473" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B474" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B475" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="8">
+        <v>43104</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B478" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B479" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B480" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{499F6E36-E417-47C7-A0C3-00E8B07A34D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{58496BAB-58F5-4520-9481-8B923B45AF81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="647">
   <si>
     <t>Date</t>
   </si>
@@ -1941,6 +1941,30 @@
   </si>
   <si>
     <t>Finalize the presentation slides</t>
+  </si>
+  <si>
+    <t>changed the wbs table with the team</t>
+  </si>
+  <si>
+    <t>modify the doc</t>
+  </si>
+  <si>
+    <t>Provided updates on gsoc proposal regarding the commitments, Went through the work load allocation section in proposal doc, Checked the diagrams in the doc</t>
+  </si>
+  <si>
+    <t>Go through the remaining sections on the proposal doc, Sort out the cdap registration problem</t>
+  </si>
+  <si>
+    <t>Edited the workload allocation</t>
+  </si>
+  <si>
+    <t>Go throught the proposal document</t>
+  </si>
+  <si>
+    <t>Corrected some mistakes in the proposal document and edited the workload</t>
+  </si>
+  <si>
+    <t>Go through the document one more time to double check</t>
   </si>
 </sst>
 </file>
@@ -2285,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D456" workbookViewId="0">
-      <selection activeCell="E480" sqref="E480"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="E485" sqref="E485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6973,7 +6997,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
-        <v>43104</v>
+        <v>43135</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>3</v>
@@ -7010,6 +7034,65 @@
       </c>
       <c r="E480" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A482" s="8">
+        <v>43163</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B483" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B484" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B485" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C485" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{58496BAB-58F5-4520-9481-8B923B45AF81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FAEC0C6C-1A48-44E2-A258-405E8FF716C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="651">
   <si>
     <t>Date</t>
   </si>
@@ -1965,6 +1965,18 @@
   </si>
   <si>
     <t>Go through the document one more time to double check</t>
+  </si>
+  <si>
+    <t>Went through the objectives in the proposal doc and refined it, Informed about the name is not listed in the research group to cdap team(but no response yet from them)</t>
+  </si>
+  <si>
+    <t>Review the proposal and submit it</t>
+  </si>
+  <si>
+    <t>Removed psuedocodes while keeping procedures and formatted the document</t>
+  </si>
+  <si>
+    <t>Review the proposal before submitting</t>
   </si>
 </sst>
 </file>
@@ -2309,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E485"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="E485" sqref="E485"/>
+      <selection activeCell="E488" sqref="E488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7095,6 +7107,47 @@
         <v>36</v>
       </c>
     </row>
+    <row r="487" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A487" s="8">
+        <v>43194</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B488" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B489" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B490" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FAEC0C6C-1A48-44E2-A258-405E8FF716C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BE7E6FB2-3491-46D9-888B-104082398F0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="652">
   <si>
     <t>Date</t>
   </si>
@@ -1977,6 +1977,9 @@
   </si>
   <si>
     <t>Review the proposal before submitting</t>
+  </si>
+  <si>
+    <t>Start modifying presentation slides</t>
   </si>
 </sst>
 </file>
@@ -2321,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="E488" sqref="E488"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="E493" sqref="E493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7148,6 +7151,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="8">
+        <v>43255</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B493" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C493" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B494" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B495" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BE7E6FB2-3491-46D9-888B-104082398F0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ABE026CA-A64B-4C2E-9625-39EF9B55ECB3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="656">
   <si>
     <t>Date</t>
   </si>
@@ -1980,6 +1980,18 @@
   </si>
   <si>
     <t>Start modifying presentation slides</t>
+  </si>
+  <si>
+    <t>Planed the main and sub topics of the presentation slides</t>
+  </si>
+  <si>
+    <t>Fill the contents for the slides</t>
+  </si>
+  <si>
+    <t>Did 2 hangout sessions</t>
+  </si>
+  <si>
+    <t>Work on the trr blocking issue</t>
   </si>
 </sst>
 </file>
@@ -2324,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="E493" sqref="E493"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="E497" sqref="E497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7183,6 +7195,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="8">
+        <v>43285</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C497" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B498" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C498" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B499" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B500" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ABE026CA-A64B-4C2E-9625-39EF9B55ECB3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2A382CC8-E347-4D20-B796-7C6B3E9DA748}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="662">
   <si>
     <t>Date</t>
   </si>
@@ -1992,6 +1992,24 @@
   </si>
   <si>
     <t>Work on the trr blocking issue</t>
+  </si>
+  <si>
+    <t>Copied our previous presentation and editted according to modified topics</t>
+  </si>
+  <si>
+    <t>Add collaborators to it</t>
+  </si>
+  <si>
+    <t>Went through the code and checked for possible places which cause for trr values not to receive</t>
+  </si>
+  <si>
+    <t>Change the trr packet order and check for the receiving values</t>
+  </si>
+  <si>
+    <t>couldnt work because of the ctse presentation</t>
+  </si>
+  <si>
+    <t>help making  the presentation</t>
   </si>
 </sst>
 </file>
@@ -2336,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E500"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="E497" sqref="E497"/>
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7236,6 +7254,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="8">
+        <v>43316</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C502" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B503" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C503" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B504" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C504" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B505" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2A382CC8-E347-4D20-B796-7C6B3E9DA748}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F426780D-EE41-4026-912C-6FAD44C6AB4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="663">
   <si>
     <t>Date</t>
   </si>
@@ -2010,6 +2010,9 @@
   </si>
   <si>
     <t>help making  the presentation</t>
+  </si>
+  <si>
+    <t>Continue on the presentation work</t>
   </si>
 </sst>
 </file>
@@ -2354,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E505"/>
+  <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="E504" sqref="E504"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="E508" sqref="E508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7304,6 +7307,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="8">
+        <v>43347</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B508" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C508" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B509" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B510" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F426780D-EE41-4026-912C-6FAD44C6AB4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0AE2DC6B-29AF-4E5B-89F9-E7093CB787DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="668">
   <si>
     <t>Date</t>
   </si>
@@ -2013,6 +2013,21 @@
   </si>
   <si>
     <t>Continue on the presentation work</t>
+  </si>
+  <si>
+    <t>Find a way to solve issues in TRR</t>
+  </si>
+  <si>
+    <t>Tried to implement alternatives for existing issues in TRR, Found a way to deserialize target node id</t>
+  </si>
+  <si>
+    <t>Went through the source code and found out that problem is because of double values are not supported in ns3</t>
+  </si>
+  <si>
+    <t>Check the suggested solutions by ns3 community</t>
+  </si>
+  <si>
+    <t>17/4/2018</t>
   </si>
 </sst>
 </file>
@@ -2357,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E510"/>
+  <dimension ref="A1:E515"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="E508" sqref="E508"/>
+      <selection activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7339,6 +7354,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C512" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B513" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C513" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B514" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B515" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0AE2DC6B-29AF-4E5B-89F9-E7093CB787DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{40B26B3D-6E0B-4D01-BC13-F9C810A41C4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="675">
   <si>
     <t>Date</t>
   </si>
@@ -2028,6 +2028,27 @@
   </si>
   <si>
     <t>17/4/2018</t>
+  </si>
+  <si>
+    <t>18/4/2018</t>
+  </si>
+  <si>
+    <t>tried to multiply (double) trust values from a value of power of ten  for convert it to int which is required for serialization in TRR header. But still the deserialization values get zero</t>
+  </si>
+  <si>
+    <t>work on presentation</t>
+  </si>
+  <si>
+    <t>Couldn't check on this alternative, Helped chamara to try out some ways to get this double values to be serialized</t>
+  </si>
+  <si>
+    <t>Check on the possibility of serializing the values</t>
+  </si>
+  <si>
+    <t>worked on presentation</t>
+  </si>
+  <si>
+    <t>Go through the existing issue in ns3</t>
   </si>
 </sst>
 </file>
@@ -2372,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E515"/>
+  <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500"/>
+    <sheetView tabSelected="1" topLeftCell="D497" workbookViewId="0">
+      <selection activeCell="E519" sqref="E519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7371,7 +7392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B513" s="2" t="s">
         <v>10</v>
       </c>
@@ -7385,13 +7406,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B514" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B515" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C517" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B518" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B519" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C519" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B520" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{40B26B3D-6E0B-4D01-BC13-F9C810A41C4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E738EB2E-A2BB-44EE-966E-7FB75F6DB944}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="685">
   <si>
     <t>Date</t>
   </si>
@@ -2049,6 +2049,36 @@
   </si>
   <si>
     <t>Go through the existing issue in ns3</t>
+  </si>
+  <si>
+    <t>19/4/2018</t>
+  </si>
+  <si>
+    <t>Met Chamira miss and got a feedback on presentation slides</t>
+  </si>
+  <si>
+    <t>Try out the alternative suggested by sir, Complete slides according the feedback given</t>
+  </si>
+  <si>
+    <t>Went through the newly made changes and caught up to date with what's been done, Added new content to the presentation slides</t>
+  </si>
+  <si>
+    <t>Work more on the presentation, Look in to the code and try to figure out how where to add the reduction factor calculation method to</t>
+  </si>
+  <si>
+    <t>20/4/2018</t>
+  </si>
+  <si>
+    <t>This is my update regarding the value passing through TRRheader. Even any int type variable assign to TRRheader anywhere inside the RecvTRR() method, it is displaying 0 at the deserialization. So still problem is existing in our end. Editted presentation slides according to the feedback given by miss</t>
+  </si>
+  <si>
+    <t>Work with team on this existing issues in TRR</t>
+  </si>
+  <si>
+    <t>modified diagrams and slides according to the feedback, Went through the newly made changes in TRR</t>
+  </si>
+  <si>
+    <t>Go throught more in the excising methods and complete the presentation</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2113,6 +2143,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2393,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E520"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D497" workbookViewId="0">
-      <selection activeCell="E519" sqref="E519"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="E530" sqref="E530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7466,6 +7499,88 @@
         <v>17</v>
       </c>
     </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B523" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C523" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B524" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B525" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B529" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B530" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C530" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B531" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E738EB2E-A2BB-44EE-966E-7FB75F6DB944}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3194E24A-05AB-434B-8C85-B7967C73E493}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="700">
   <si>
     <t>Date</t>
   </si>
@@ -2079,6 +2079,51 @@
   </si>
   <si>
     <t>Go throught more in the excising methods and complete the presentation</t>
+  </si>
+  <si>
+    <t>21/4/2018</t>
+  </si>
+  <si>
+    <t>Practiced for presentation with the team</t>
+  </si>
+  <si>
+    <t>Change the slides little bit and upload the link to group</t>
+  </si>
+  <si>
+    <t>Tried for different ways to get the serialized values to destination, Prepared for the presentation</t>
+  </si>
+  <si>
+    <t>Try to pass the values as ipv4address values</t>
+  </si>
+  <si>
+    <t>Change the content in some slides as miss chameera told to</t>
+  </si>
+  <si>
+    <t>Look in to the code and tried to figure out a way to implement a method to process double values in NS3 with the team, Finalized the presentation and practiced with the team, Got feedback from chameera miss</t>
+  </si>
+  <si>
+    <t>22/4/2018</t>
+  </si>
+  <si>
+    <t>Finalized the presentation slides</t>
+  </si>
+  <si>
+    <t>Practice for the presentation well</t>
+  </si>
+  <si>
+    <t>Tried to implement with ipv4address, Posted the question in ns3 zulip chat</t>
+  </si>
+  <si>
+    <t>Try to sent the value as ip addresses</t>
+  </si>
+  <si>
+    <t>couldn't find a way to pass the double values through trr</t>
+  </si>
+  <si>
+    <t>Made the necessary changes to the presentation slides and finalized it</t>
+  </si>
+  <si>
+    <t>Look in to the code and try to figure out a solution for the double value issue with the TRR packet</t>
   </si>
 </sst>
 </file>
@@ -2426,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="E530" sqref="E530"/>
+    <sheetView tabSelected="1" topLeftCell="D523" workbookViewId="0">
+      <selection activeCell="E540" sqref="E540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7548,7 +7593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B529" s="3" t="s">
         <v>10</v>
       </c>
@@ -7562,7 +7607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="530" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B530" s="2" t="s">
         <v>13</v>
       </c>
@@ -7576,8 +7621,108 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B531" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C533" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B534" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C534" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B535" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B536" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C536" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C538" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B539" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C539" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B540" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C540" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B541" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3194E24A-05AB-434B-8C85-B7967C73E493}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4E9B8D41-47FB-4393-8B1C-1DBBA238ECB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="703">
   <si>
     <t>Date</t>
   </si>
@@ -2124,6 +2124,15 @@
   </si>
   <si>
     <t>Look in to the code and try to figure out a solution for the double value issue with the TRR packet</t>
+  </si>
+  <si>
+    <t>23/4/2018</t>
+  </si>
+  <si>
+    <t>Practiced for the presentation</t>
+  </si>
+  <si>
+    <t>Move into ns3 codebase again</t>
   </si>
 </sst>
 </file>
@@ -2471,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D523" workbookViewId="0">
-      <selection activeCell="E540" sqref="E540"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="E544" sqref="E544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7726,6 +7735,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B544" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C544" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4E9B8D41-47FB-4393-8B1C-1DBBA238ECB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{47F042B3-C822-44F1-BE8E-A9D759ABF883}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="713">
   <si>
     <t>Date</t>
   </si>
@@ -2133,6 +2133,36 @@
   </si>
   <si>
     <t>Move into ns3 codebase again</t>
+  </si>
+  <si>
+    <t>25/4/2018</t>
+  </si>
+  <si>
+    <t>Added a new uint32_t type variable to the TRR packet and try out. For me even it's printing the correct value at the serialize end, it will print 0 at the deserialized end.</t>
+  </si>
+  <si>
+    <t>Try out some alternatives for above issues</t>
+  </si>
+  <si>
+    <t>27/4/2018</t>
+  </si>
+  <si>
+    <t>Created an Ipv4Address type variable in TRRheader. Set the uint32_t global trust value in that Ipv4Address type variable by calling the Set method of it which has a uint32_t parameter. Then serialization end most of the values printed correctly, but the deserialized end still printing zero.</t>
+  </si>
+  <si>
+    <t>Try out other possible solutions to deserialization issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tried to solve the problem of DT having minus values </t>
+  </si>
+  <si>
+    <t>solve the above problem and add the interactions according to the time period</t>
+  </si>
+  <si>
+    <t>Tried to implement a new method for double as other data types have been defined in NS3</t>
+  </si>
+  <si>
+    <t>Complete the above method and see if it works</t>
   </si>
 </sst>
 </file>
@@ -2480,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E546"/>
+  <dimension ref="A1:E556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="E544" sqref="E544"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="E556" sqref="E556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7757,14 +7787,96 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B545" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B546" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B549" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C549" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B550" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B551" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B554" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B555" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C556" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{47F042B3-C822-44F1-BE8E-A9D759ABF883}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B18A3BBB-E0C7-45C5-AF87-BA80FB480271}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="723">
   <si>
     <t>Date</t>
   </si>
@@ -2163,6 +2163,36 @@
   </si>
   <si>
     <t>Complete the above method and see if it works</t>
+  </si>
+  <si>
+    <t>29/4/2018</t>
+  </si>
+  <si>
+    <t>Tried without deserialization for trust values; by getting values from Trust Table using a for loop and aid of the deserialization process for target nodes inside the receive TRR method. Worked fine and printed the 3 TRR tables with same values printed in 3 Trust tables when nodes count get 3. It was obviously wrong for 4 nodes onwards.</t>
+  </si>
+  <si>
+    <t>Try to enhance above method for any number of nodes.</t>
+  </si>
+  <si>
+    <t>couldn't do much work because of the ML assignment</t>
+  </si>
+  <si>
+    <t>Add the interaction count and define time period in DT</t>
+  </si>
+  <si>
+    <t>30/4/2018</t>
+  </si>
+  <si>
+    <t>Could enhance yesterday's method for any number of nodes as I could see by observing the lengthy outputs wisely. But TRR table is not giving a user-friendly output as TRR name convey with this new way. So if it's getting difficult when retrieving values from TRR table, try to modify the way of printing the TRR table.</t>
+  </si>
+  <si>
+    <t>Try to retrieve values from TRR tables for calculating indirect trust</t>
+  </si>
+  <si>
+    <t>Went through the PPR marking guidelines and the template, Uploaded the temple to the drive for everyone to edit</t>
+  </si>
+  <si>
+    <t>Start writing the PPR with the team, Have a Skype call and discuss further details</t>
   </si>
 </sst>
 </file>
@@ -2510,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E556"/>
+  <dimension ref="A1:E571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="E556" sqref="E556"/>
+    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
+      <selection activeCell="C577" sqref="C577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7879,6 +7909,111 @@
         <v>9</v>
       </c>
     </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B559" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B560" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B561" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B564" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B565" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B566" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="9">
+        <v>43105</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B569" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B570" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B571" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C571" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B18A3BBB-E0C7-45C5-AF87-BA80FB480271}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DABBF9F-9F40-44D9-9719-F07F5FE78EAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="733">
   <si>
     <t>Date</t>
   </si>
@@ -2193,6 +2193,36 @@
   </si>
   <si>
     <t>Start writing the PPR with the team, Have a Skype call and discuss further details</t>
+  </si>
+  <si>
+    <t>Wrote some of the common parts in the PPD</t>
+  </si>
+  <si>
+    <t>Start writing my own functionalities in the PPD, Update the team about the modifications that were done to the document</t>
+  </si>
+  <si>
+    <t>Planned the structure of my own PPR</t>
+  </si>
+  <si>
+    <t>Start writing on PPR</t>
+  </si>
+  <si>
+    <t>Worked on the documentation, Uploaded the latest version to the drive for others to get updates</t>
+  </si>
+  <si>
+    <t>Discuss with the team about doubts regarding the documentation, Complete section 2 and 3 in the documentation</t>
+  </si>
+  <si>
+    <t>wrote some common parts in the documentation</t>
+  </si>
+  <si>
+    <t>work on my own parts in PPR</t>
+  </si>
+  <si>
+    <t>Couldn't do much work today due to IUP online</t>
+  </si>
+  <si>
+    <t>Work on PPR</t>
   </si>
 </sst>
 </file>
@@ -2540,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E571"/>
+  <dimension ref="A1:E581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="C577" sqref="C577"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="E579" sqref="E579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8014,6 +8044,97 @@
         <v>9</v>
       </c>
     </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="9">
+        <v>43136</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B574" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B575" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B576" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="9">
+        <v>43164</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B579" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C579" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B580" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B581" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DABBF9F-9F40-44D9-9719-F07F5FE78EAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E17D6DC4-DDD5-4877-B99C-3948DB155A41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="744">
   <si>
     <t>Date</t>
   </si>
@@ -2223,6 +2223,39 @@
   </si>
   <si>
     <t>Work on PPR</t>
+  </si>
+  <si>
+    <t>Wrote content for the Spiral related PPR</t>
+  </si>
+  <si>
+    <t>Format the document, Find out missing sections in all of documents and try to complete</t>
+  </si>
+  <si>
+    <t>Worked on the document, added technical details if the project, Tried to contact the mentor and solve the problem</t>
+  </si>
+  <si>
+    <t>Review the document</t>
+  </si>
+  <si>
+    <t>Worked on the common documentation, Started the individual PPR</t>
+  </si>
+  <si>
+    <t>Complete the common documentation, Work more on the individual PPR</t>
+  </si>
+  <si>
+    <t>Forked the ns3 repo and started to explore the code, Discussed about the documents and the development approach with Chamira miss, Worked on the documentation</t>
+  </si>
+  <si>
+    <t>Complete the common doc and the individual doc</t>
+  </si>
+  <si>
+    <t>waiting for the response from Tommaso about the trr code</t>
+  </si>
+  <si>
+    <t>Worked on the common sections in the ppr and started writing individual ppr</t>
+  </si>
+  <si>
+    <t>complete the individual ppr</t>
   </si>
 </sst>
 </file>
@@ -2570,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E581"/>
+  <dimension ref="A1:E591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="E579" sqref="E579"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="E590" sqref="E590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8135,6 +8168,97 @@
         <v>9</v>
       </c>
     </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="9">
+        <v>43195</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C583" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B584" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B585" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B586" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A588" s="9">
+        <v>43256</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C588" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B589" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B590" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B591" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E17D6DC4-DDD5-4877-B99C-3948DB155A41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE2363DA-BAB1-4D6A-947C-BAA7747D3377}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="746">
   <si>
     <t>Date</t>
   </si>
@@ -2256,6 +2256,12 @@
   </si>
   <si>
     <t>complete the individual ppr</t>
+  </si>
+  <si>
+    <t>Completed the PPR doc for spiral and RL model</t>
+  </si>
+  <si>
+    <t>Find out the reply given for TRR issue and try to figure it out, Try to find out the structure for project status document</t>
   </si>
 </sst>
 </file>
@@ -2603,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E591"/>
+  <dimension ref="A1:E596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="E590" sqref="E590"/>
+    <sheetView tabSelected="1" topLeftCell="D582" workbookViewId="0">
+      <selection activeCell="C594" sqref="C594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8259,6 +8265,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="9">
+        <v>43286</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B594" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D594" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B595" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B596" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE2363DA-BAB1-4D6A-947C-BAA7747D3377}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F480B37-ED3A-4D7E-8E56-F8748A8E8A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="748">
   <si>
     <t>Date</t>
   </si>
@@ -2262,6 +2262,12 @@
   </si>
   <si>
     <t>Find out the reply given for TRR issue and try to figure it out, Try to find out the structure for project status document</t>
+  </si>
+  <si>
+    <t>Couldn't do much work today due to bad health</t>
+  </si>
+  <si>
+    <t>Start creating project status document for PPR</t>
   </si>
 </sst>
 </file>
@@ -2609,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E596"/>
+  <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D582" workbookViewId="0">
-      <selection activeCell="C594" sqref="C594"/>
+    <sheetView tabSelected="1" topLeftCell="D587" workbookViewId="0">
+      <selection activeCell="F599" sqref="F599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8297,6 +8303,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="9">
+        <v>43348</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B599" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C599" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B600" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B601" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F480B37-ED3A-4D7E-8E56-F8748A8E8A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{501422F6-48FA-45A0-8C83-49EDC60D91D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="753">
   <si>
     <t>Date</t>
   </si>
@@ -2268,6 +2268,21 @@
   </si>
   <si>
     <t>Start creating project status document for PPR</t>
+  </si>
+  <si>
+    <t>Completed my project status document</t>
+  </si>
+  <si>
+    <t>get the latest ns3 project and try to work on it</t>
+  </si>
+  <si>
+    <t>Created a new module according to the given script file, Copying the completed work into the new ns-3 code base</t>
+  </si>
+  <si>
+    <t>Copy all the existing modifications to the new code base</t>
+  </si>
+  <si>
+    <t>TRR is still at the same level</t>
   </si>
 </sst>
 </file>
@@ -2615,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E601"/>
+  <dimension ref="A1:E606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D587" workbookViewId="0">
-      <selection activeCell="F599" sqref="F599"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="E603" sqref="E603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8335,6 +8350,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="9">
+        <v>43409</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C603" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B604" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C604" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B605" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B606" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{501422F6-48FA-45A0-8C83-49EDC60D91D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F26ACDC8-3232-46ED-AC07-BA98ADE31CEC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="760">
   <si>
     <t>Date</t>
   </si>
@@ -2283,6 +2283,27 @@
   </si>
   <si>
     <t>TRR is still at the same level</t>
+  </si>
+  <si>
+    <t>13/5/2018</t>
+  </si>
+  <si>
+    <t>Started watching videos on markof framework to get a better idea on reinforcement learning</t>
+  </si>
+  <si>
+    <t>Try to execute our trust based model on latest ns3 project and figure it out new TRR issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed the remaining work and finished the PRR </t>
+  </si>
+  <si>
+    <t>finish the remaining work of the individual document and send it to the group</t>
+  </si>
+  <si>
+    <t>Changed some parts in the ppr and worked on individual parts</t>
+  </si>
+  <si>
+    <t>complete the individual ppr and watch matlab tutorials</t>
   </si>
 </sst>
 </file>
@@ -2630,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E606"/>
+  <dimension ref="A1:E611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="E603" sqref="E603"/>
+    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
+      <selection activeCell="E610" sqref="E610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8391,6 +8412,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B609" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C609" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B610" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C610" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="611" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B611" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C611" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F26ACDC8-3232-46ED-AC07-BA98ADE31CEC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FE9E7F5-20F5-49A3-90CA-F2C14571FBEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="770">
   <si>
     <t>Date</t>
   </si>
@@ -2304,6 +2304,37 @@
   </si>
   <si>
     <t>complete the individual ppr and watch matlab tutorials</t>
+  </si>
+  <si>
+    <t>15/5/2018</t>
+  </si>
+  <si>
+    <t>submitted PPRs with the team, could find a way to fix issue of receiving TRR after integrated with latest ns3. But still deserialization issues of numerical value is there to fix</t>
+  </si>
+  <si>
+    <t>ready for the demo with supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished all of the PPR documentations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look in to the code and get updated with what's been done past couple of days. Understand the current issue and try to solve it.
+</t>
+  </si>
+  <si>
+    <t>Submitted the PPR</t>
+  </si>
+  <si>
+    <t>Go throught the code and get updates, Watch MATLAB Tutorials</t>
+  </si>
+  <si>
+    <t>16/5/2018</t>
+  </si>
+  <si>
+    <t>Tried an alternative for TRR, Had a meeting with supervisor</t>
+  </si>
+  <si>
+    <t>Try to fix the issue of updating indirect trust value.</t>
   </si>
 </sst>
 </file>
@@ -2651,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E611"/>
+  <dimension ref="A1:E621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="E610" sqref="E610"/>
+    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
+      <selection activeCell="E619" sqref="E619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8420,7 +8451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B609" s="3" t="s">
         <v>10</v>
       </c>
@@ -8434,7 +8465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="610" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B610" s="2" t="s">
         <v>13</v>
       </c>
@@ -8448,7 +8479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="611" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B611" s="3" t="s">
         <v>17</v>
       </c>
@@ -8460,6 +8491,88 @@
       </c>
       <c r="E611" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B614" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C614" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B615" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C615" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B616" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D616" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B619" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C619" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B620" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B621" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FE9E7F5-20F5-49A3-90CA-F2C14571FBEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{70BD7894-A5A0-496F-9441-A3B48581AA79}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="775">
   <si>
     <t>Date</t>
   </si>
@@ -2328,13 +2328,28 @@
     <t>Go throught the code and get updates, Watch MATLAB Tutorials</t>
   </si>
   <si>
-    <t>16/5/2018</t>
-  </si>
-  <si>
     <t>Tried an alternative for TRR, Had a meeting with supervisor</t>
   </si>
   <si>
     <t>Try to fix the issue of updating indirect trust value.</t>
+  </si>
+  <si>
+    <t>22/5/2018</t>
+  </si>
+  <si>
+    <t>23/5/2018</t>
+  </si>
+  <si>
+    <t>writeHtonU32 and ReadNtohU32 methods for serialization and deserialization for values didn't work for me correctly, could solve the trust table updating issue of Yesterday</t>
+  </si>
+  <si>
+    <t>Aware team about alternative way of TRR and try to move forward with</t>
+  </si>
+  <si>
+    <t>Get the updates and went through new modifications</t>
+  </si>
+  <si>
+    <t>Try visualization in new code base</t>
   </si>
 </sst>
 </file>
@@ -2682,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E621"/>
+  <dimension ref="A1:E626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="E619" sqref="E619"/>
+    <sheetView tabSelected="1" topLeftCell="A605" workbookViewId="0">
+      <selection activeCell="E625" sqref="E625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8545,7 +8560,7 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>3</v>
@@ -8556,10 +8571,10 @@
         <v>10</v>
       </c>
       <c r="C619" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="D619" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="D619" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>9</v>
@@ -8572,6 +8587,47 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B621" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B624" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C624" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B625" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C625" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B626" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{70BD7894-A5A0-496F-9441-A3B48581AA79}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47DE9E6B-8613-4D98-A7C4-7821F44BC063}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="780">
   <si>
     <t>Date</t>
   </si>
@@ -2350,6 +2350,21 @@
   </si>
   <si>
     <t>Try visualization in new code base</t>
+  </si>
+  <si>
+    <t>Unable to go forward with alternative for TRR since couldn't identify the nodes  which will send reply</t>
+  </si>
+  <si>
+    <t>24/5/2018</t>
+  </si>
+  <si>
+    <t>Try to figure out the reason for conditions getting failed in recvTRR method of new code base.</t>
+  </si>
+  <si>
+    <t>Got the latest version of the code, Ran the project and went through the code.</t>
+  </si>
+  <si>
+    <t>get updated with the current situation of the issues and try to solve it.</t>
   </si>
 </sst>
 </file>
@@ -2697,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E626"/>
+  <dimension ref="A1:E631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A605" workbookViewId="0">
-      <selection activeCell="E625" sqref="E625"/>
+    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
+      <selection activeCell="E631" sqref="E631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8612,7 +8627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B625" s="2" t="s">
         <v>13</v>
       </c>
@@ -8626,9 +8641,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B626" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B629" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C629" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B630" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B631" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C631" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47DE9E6B-8613-4D98-A7C4-7821F44BC063}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B4C9E6E-B5EF-4BEA-909E-0DC9E27665E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="782">
   <si>
     <t>Date</t>
   </si>
@@ -2365,6 +2365,12 @@
   </si>
   <si>
     <t>get updated with the current situation of the issues and try to solve it.</t>
+  </si>
+  <si>
+    <t>Fixed the issue of conditions getting failed inside recvTRR method in the new codebase.</t>
+  </si>
+  <si>
+    <t>Ready for PPR presentations and quizes</t>
   </si>
 </sst>
 </file>
@@ -2712,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E631"/>
+  <dimension ref="A1:E636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="E631" sqref="E631"/>
+      <selection activeCell="E634" sqref="E634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8687,6 +8693,38 @@
         <v>36</v>
       </c>
     </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" s="9">
+        <v>43106</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B634" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C634" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B635" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B636" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B4C9E6E-B5EF-4BEA-909E-0DC9E27665E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8E62046-CAA5-4A13-BCD0-383BD88A8B30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="784">
   <si>
     <t>Date</t>
   </si>
@@ -2371,6 +2371,12 @@
   </si>
   <si>
     <t>Ready for PPR presentations and quizes</t>
+  </si>
+  <si>
+    <t>Fixed the TRR issue with team.</t>
+  </si>
+  <si>
+    <t>Continue on implementations</t>
   </si>
 </sst>
 </file>
@@ -2718,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E636"/>
+  <dimension ref="A1:E641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="E634" sqref="E634"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="E639" sqref="E639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8725,6 +8731,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="9">
+        <v>43257</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B639" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C639" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B640" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B641" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8E62046-CAA5-4A13-BCD0-383BD88A8B30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA95FE9E-6E35-4983-8F71-4338ACDA6898}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="788">
   <si>
     <t>Date</t>
   </si>
@@ -2377,6 +2377,18 @@
   </si>
   <si>
     <t>Continue on implementations</t>
+  </si>
+  <si>
+    <t>Changed direct trust calculation method considering number of interactions between nodes with Sadunika.</t>
+  </si>
+  <si>
+    <t>Write a method to print trust tables after all the transmissions happen, Try to find the root cause for getting large values for DT when printing trust table at RecvTrr method.</t>
+  </si>
+  <si>
+    <t>Implemented the float value passing in trr</t>
+  </si>
+  <si>
+    <t>Finish the basic implementation in gsoc project</t>
   </si>
 </sst>
 </file>
@@ -2724,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E641"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="E639" sqref="E639"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="E643" sqref="E643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8758,8 +8770,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B641" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="9">
+        <v>43379</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C643" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B644" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B645" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B646" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA95FE9E-6E35-4983-8F71-4338ACDA6898}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5086A831-7617-473A-8B4A-2038B397FE91}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="794">
   <si>
     <t>Date</t>
   </si>
@@ -2389,6 +2389,24 @@
   </si>
   <si>
     <t>Finish the basic implementation in gsoc project</t>
+  </si>
+  <si>
+    <t>Implemented a method to print the trust table at the end of all the transmissions.( used ns3 coding standards to implement), Unable to find the exact reason for getting very small trust values when triggering the execute method because calculating trust value method didn't produce such values as I could see in the terminal.</t>
+  </si>
+  <si>
+    <t>Try to fix the issue of getting small trust  values at the execution of execute method</t>
+  </si>
+  <si>
+    <t>Fixed issue of printing very small trust values in trust table. For that implemented a scheduler method to calculate trust values at the beginning as well. Now trust table, TRR tables are printing valid direct trust values inside any method of the routing protocol class.</t>
+  </si>
+  <si>
+    <t>Figure out the reason for printing  recommendation table values taking unexpected figures.</t>
+  </si>
+  <si>
+    <t>Fixed the issue which occurred while adding values to the recommendations table, Figured out a proper place for trust level classification method to be called. Successfully classify trust levels, Made sure the indirect calculation method is working properly without recommending values.</t>
+  </si>
+  <si>
+    <t>Finish the indirect trust calculation with considering recommendation values, Complete the spiral model part in the classifying trust level</t>
   </si>
 </sst>
 </file>
@@ -2736,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E646"/>
+  <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="E643" sqref="E643"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="E656" sqref="E656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8816,6 +8834,79 @@
         <v>17</v>
       </c>
     </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="9">
+        <v>43410</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B649" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C649" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B650" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B651" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="9">
+        <v>43440</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B654" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B655" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B656" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C656" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E656" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5086A831-7617-473A-8B4A-2038B397FE91}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0AA2FCBB-531D-444E-A6D8-7B767736C9DC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="797">
   <si>
     <t>Date</t>
   </si>
@@ -2407,6 +2407,15 @@
   </si>
   <si>
     <t>Finish the indirect trust calculation with considering recommendation values, Complete the spiral model part in the classifying trust level</t>
+  </si>
+  <si>
+    <t>13/6/2018</t>
+  </si>
+  <si>
+    <t>finished the abstract section and start working on literature section in researh paper</t>
+  </si>
+  <si>
+    <t>Finish the literature part and move to the description</t>
   </si>
 </sst>
 </file>
@@ -2754,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E656"/>
+  <dimension ref="A1:E661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="E656" sqref="E656"/>
+    <sheetView tabSelected="1" topLeftCell="D648" workbookViewId="0">
+      <selection activeCell="E660" sqref="E660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8907,6 +8916,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B659" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B660" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C660" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B661" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0AA2FCBB-531D-444E-A6D8-7B767736C9DC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FF16E9E-4463-44EC-A1CE-9075FF9CB348}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="813">
   <si>
     <t>Date</t>
   </si>
@@ -2416,6 +2416,54 @@
   </si>
   <si>
     <t>Finish the literature part and move to the description</t>
+  </si>
+  <si>
+    <t>19/6/2018</t>
+  </si>
+  <si>
+    <t>Added the updated spiral model code to main codebase.</t>
+  </si>
+  <si>
+    <t>Try to finish implementing malicious nodes  broadcasting process in spiral</t>
+  </si>
+  <si>
+    <t>Checkout the status of each individual, Wrote the documentation in gsoc project</t>
+  </si>
+  <si>
+    <t>Implement the aodv specific trust framework</t>
+  </si>
+  <si>
+    <t>20/6/2018</t>
+  </si>
+  <si>
+    <t>Implemented method to happen basic broadcasting among nodes similar to TRR.</t>
+  </si>
+  <si>
+    <t>Try to complete that implementation</t>
+  </si>
+  <si>
+    <t>Completed the protocol description part in the research paper.</t>
+  </si>
+  <si>
+    <t>complete the rest of the literature section</t>
+  </si>
+  <si>
+    <t>Completed implementing broadcast process of malicious nodes in Spiral model.</t>
+  </si>
+  <si>
+    <t>Implement penalty process for neigbor nodes of collaborative nodes</t>
+  </si>
+  <si>
+    <t>22/6/2018</t>
+  </si>
+  <si>
+    <t>23/6/2018</t>
+  </si>
+  <si>
+    <t>Added a new column to the recommendation table, Successfully finalized the method for populating recommendation table, Completed indirect trust calculation, Added a new method to print the values of each table after 9 seconds</t>
+  </si>
+  <si>
+    <t>Go through the table values which are printing and see if there are any abnormalities</t>
   </si>
 </sst>
 </file>
@@ -2763,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E661"/>
+  <dimension ref="A1:E681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D648" workbookViewId="0">
-      <selection activeCell="E660" sqref="E660"/>
+    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
+      <selection activeCell="E681" sqref="E681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8948,6 +8996,152 @@
         <v>17</v>
       </c>
     </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C663" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B664" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C664" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E664" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B665" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B666" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B669" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C669" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B670" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C670" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B671" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B674" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C674" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E674" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B675" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B676" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B679" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B680" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B681" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C681" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FF16E9E-4463-44EC-A1CE-9075FF9CB348}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EEA88EF4-F693-4662-A584-FA6F31ECBF12}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="818">
   <si>
     <t>Date</t>
   </si>
@@ -2464,6 +2464,21 @@
   </si>
   <si>
     <t>Go through the table values which are printing and see if there are any abnormalities</t>
+  </si>
+  <si>
+    <t>25/6/2018</t>
+  </si>
+  <si>
+    <t>Edited the research paper according to the instructions</t>
+  </si>
+  <si>
+    <t>complete the performance analysis part in the paper</t>
+  </si>
+  <si>
+    <t>Fixed the issue with blacklist nodes in the rec table, Updated GT after reduction factor calculations</t>
+  </si>
+  <si>
+    <t>Figure out why a nan value is coming as IT for one node</t>
   </si>
 </sst>
 </file>
@@ -2811,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E681"/>
+  <dimension ref="A1:E686"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="E681" sqref="E681"/>
+      <selection activeCell="E686" sqref="E686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9142,6 +9157,47 @@
         <v>36</v>
       </c>
     </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B684" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B685" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C685" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E685" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B686" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C686" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E686" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EEA88EF4-F693-4662-A584-FA6F31ECBF12}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D44F862-0711-4FD9-9C79-1F6D59EBA76A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="829">
   <si>
     <t>Date</t>
   </si>
@@ -2479,6 +2479,39 @@
   </si>
   <si>
     <t>Figure out why a nan value is coming as IT for one node</t>
+  </si>
+  <si>
+    <t>26/6/2018</t>
+  </si>
+  <si>
+    <t>Added a malicious node and checked our trust based framework. For that also it will detect as pure malicious. So there  should be issues in our trust calculations and classifications, Unable to broadcast all the malicious nodes details belong to a table a via a packet.</t>
+  </si>
+  <si>
+    <t>review the trust calculation process</t>
+  </si>
+  <si>
+    <t>27/6/2018</t>
+  </si>
+  <si>
+    <t>Modified the indirect trust calculation class (didn't commit to git- available in fb group) where trust levels can differ. And asking for further reviews from the team.</t>
+  </si>
+  <si>
+    <t>Figure out the reason why trust table entries couldn"t erase from some places.</t>
+  </si>
+  <si>
+    <t>28/6/2018</t>
+  </si>
+  <si>
+    <t>completed adding performance analysis part to the paper</t>
+  </si>
+  <si>
+    <t>Figure out how to use tensoflow  with normal aodv</t>
+  </si>
+  <si>
+    <t>Updated the ns-3 document, Had a discussion with Tom handersson</t>
+  </si>
+  <si>
+    <t>Read and understand the given research paper by Tom</t>
   </si>
 </sst>
 </file>
@@ -2826,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E686"/>
+  <dimension ref="A1:E701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="E686" sqref="E686"/>
+    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
+      <selection activeCell="E698" sqref="E698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9198,6 +9231,111 @@
         <v>36</v>
       </c>
     </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B689" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C689" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B690" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B691" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B694" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C694" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D694" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B695" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B696" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C698" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E698" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B699" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B700" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C700" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E700" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B701" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D44F862-0711-4FD9-9C79-1F6D59EBA76A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81C8CB3B-C8B1-4097-A80C-0A8028BD2245}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="831">
   <si>
     <t>Date</t>
   </si>
@@ -2512,6 +2512,12 @@
   </si>
   <si>
     <t>Read and understand the given research paper by Tom</t>
+  </si>
+  <si>
+    <t>Enabled python bindings in my local machine for visualizer to work.</t>
+  </si>
+  <si>
+    <t>Try out tools to design graphs for our simulation output.</t>
   </si>
 </sst>
 </file>
@@ -2859,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E701"/>
+  <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
-      <selection activeCell="E698" sqref="E698"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="E704" sqref="E704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9336,6 +9342,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" s="9">
+        <v>43166</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B704" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B705" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B706" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81C8CB3B-C8B1-4097-A80C-0A8028BD2245}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CE5EEDF-0A63-4263-A54E-20560C7ECD01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="835">
   <si>
     <t>Date</t>
   </si>
@@ -2518,6 +2518,18 @@
   </si>
   <si>
     <t>Try out tools to design graphs for our simulation output.</t>
+  </si>
+  <si>
+    <t>Started playing around with gnuplot to draw graphs for backup tables</t>
+  </si>
+  <si>
+    <t>Work with team and try to having the supervisor meeting</t>
+  </si>
+  <si>
+    <t>Created a network topology with 5 nodes where one node is malicious. Could identify that malicious node finely through our trust based framework.</t>
+  </si>
+  <si>
+    <t>Ready for NBQSA screening presentation</t>
   </si>
 </sst>
 </file>
@@ -2865,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E706"/>
+  <dimension ref="A1:E716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
-      <selection activeCell="E704" sqref="E704"/>
+    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
+      <selection activeCell="A713" sqref="A713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9364,13 +9376,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B705" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B706" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" s="9">
+        <v>43258</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B709" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C709" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B710" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B711" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" s="9">
+        <v>43411</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B714" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C714" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B715" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B716" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CE5EEDF-0A63-4263-A54E-20560C7ECD01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BEB60C35-63ED-4DBA-977B-25E58453FE2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="840">
   <si>
     <t>Date</t>
   </si>
@@ -2530,6 +2530,21 @@
   </si>
   <si>
     <t>Ready for NBQSA screening presentation</t>
+  </si>
+  <si>
+    <t>16/7/2018</t>
+  </si>
+  <si>
+    <t>Created a network with 10 nodes where two nodes are malicious. Able to identify those two malicious nodes through our framework.</t>
+  </si>
+  <si>
+    <t>Try it for 20 nodes while increasing malicious nodes according to our table in the research paper.</t>
+  </si>
+  <si>
+    <t>Modified the framework according to the feedback, Implemented the basic promicucous callback, Wrote documentation, Had the weekly call</t>
+  </si>
+  <si>
+    <t>Implement the calculateatrust method, Write more documentation</t>
   </si>
 </sst>
 </file>
@@ -2877,10 +2892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E716"/>
+  <dimension ref="A1:E721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
-      <selection activeCell="A713" sqref="A713"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="C725" sqref="C725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9450,6 +9465,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="718" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A718" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C718" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B719" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C719" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B720" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B721" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BEB60C35-63ED-4DBA-977B-25E58453FE2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8315B21-BD5A-470E-A243-B8870116956B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="843">
   <si>
     <t>Date</t>
   </si>
@@ -2545,6 +2545,15 @@
   </si>
   <si>
     <t>Implement the calculateatrust method, Write more documentation</t>
+  </si>
+  <si>
+    <t>20/7/2018</t>
+  </si>
+  <si>
+    <t>Analyzed performance metrics like throughput, delay sum, packet delivery ratio with compared to traditional aodv, Calculated true postitive and false positive rate for detection of malicious nodes while increasing number of malicious nodes. When increasing number of malicious nodes true postitive rate is bit decrementing in our trust based framework.</t>
+  </si>
+  <si>
+    <t>Finalize research paper</t>
   </si>
 </sst>
 </file>
@@ -2892,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E721"/>
+  <dimension ref="A1:E726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="C725" sqref="C725"/>
+    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
+      <selection activeCell="E724" sqref="E724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9501,8 +9510,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B721" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B724" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C724" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B725" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B726" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8315B21-BD5A-470E-A243-B8870116956B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{38D479D3-ACB4-483E-AE02-27BB80D53F5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="846">
   <si>
     <t>Date</t>
   </si>
@@ -2554,6 +2554,15 @@
   </si>
   <si>
     <t>Finalize research paper</t>
+  </si>
+  <si>
+    <t>25/7/2018</t>
+  </si>
+  <si>
+    <t>Had a meeting with supervisor on our completed research paper.</t>
+  </si>
+  <si>
+    <t>Try to figure out the way of visualization of packets dropping and implementation of RL component in last year project, Submit project status document, Update the research paper with today's feedback.</t>
   </si>
 </sst>
 </file>
@@ -2901,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E726"/>
+  <dimension ref="A1:E731"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
-      <selection activeCell="E724" sqref="E724"/>
+      <selection activeCell="C729" sqref="C729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9547,6 +9556,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B729" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B730" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B731" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{38D479D3-ACB4-483E-AE02-27BB80D53F5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{533C6CC5-DD41-415B-BFFF-EB4F0EE24A06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="850">
   <si>
     <t>Date</t>
   </si>
@@ -2563,6 +2563,18 @@
   </si>
   <si>
     <t>Try to figure out the way of visualization of packets dropping and implementation of RL component in last year project, Submit project status document, Update the research paper with today's feedback.</t>
+  </si>
+  <si>
+    <t>Configured the ns3 environment to implement RL model, Found few mistakes in the research paper mailed today.</t>
+  </si>
+  <si>
+    <t>Meet supervisor and discuss about the research paper which is gonna submit for IEEE conference, Try to implement a RL model which is capable of predicting the trustworthy route to transmit packets</t>
+  </si>
+  <si>
+    <t>Wrote the documentation for gsoc project, modified the example simulation for trust framework, Had multiple calls with Tommaso to discuss on the final wrap up things to gsoc project</t>
+  </si>
+  <si>
+    <t>have the final call with Tom and Tommaso regarding the progress of the gsoc project, prepare the results of the trust framework, clean up the scratch folder and modify the sample simulation for the trust framework</t>
   </si>
 </sst>
 </file>
@@ -2910,10 +2922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E731"/>
+  <dimension ref="A1:E736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
-      <selection activeCell="C729" sqref="C729"/>
+    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+      <selection activeCell="C733" sqref="C733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9588,6 +9600,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="733" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A733" s="9">
+        <v>43412</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C733" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="D733" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B734" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B735" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B736" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{533C6CC5-DD41-415B-BFFF-EB4F0EE24A06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECA87E86-B6B5-4144-8801-95E106A7434A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="850">
   <si>
     <t>Date</t>
   </si>
@@ -2922,10 +2922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E736"/>
+  <dimension ref="A1:E741"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="C733" sqref="C733"/>
+      <selection activeCell="A738" sqref="A738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9641,6 +9641,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="9">
+        <v>43442</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B739" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B740" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B741" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECA87E86-B6B5-4144-8801-95E106A7434A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CB3FBEA-A98C-49B6-B2C2-B915DE3AA05C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="855">
   <si>
     <t>Date</t>
   </si>
@@ -2575,6 +2575,21 @@
   </si>
   <si>
     <t>have the final call with Tom and Tommaso regarding the progress of the gsoc project, prepare the results of the trust framework, clean up the scratch folder and modify the sample simulation for the trust framework</t>
+  </si>
+  <si>
+    <t>31/8/2018</t>
+  </si>
+  <si>
+    <t>Submitted the research paper in ICIAfS, Started working on final report</t>
+  </si>
+  <si>
+    <t>Complete working on the draft report</t>
+  </si>
+  <si>
+    <t>Scheduled a call with Tommaso to discuss about the memory warning in trust framework, Went through the final report creation</t>
+  </si>
+  <si>
+    <t>Check and follow up the group report documentation, Check on the RL component integration</t>
   </si>
 </sst>
 </file>
@@ -2925,7 +2940,7 @@
   <dimension ref="A1:E741"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="A738" sqref="A738"/>
+      <selection activeCell="F746" sqref="F746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9641,25 +9656,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="9">
-        <v>43442</v>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" s="9" t="s">
+        <v>850</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C738" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E738" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B739" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C739" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B740" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B741" s="3" t="s">
         <v>17</v>
       </c>

--- a/scrumResearch.xlsx
+++ b/scrumResearch.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CB3FBEA-A98C-49B6-B2C2-B915DE3AA05C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B337FC0-79A3-4DDA-AAA9-C2E14EB0EB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="857">
   <si>
     <t>Date</t>
   </si>
@@ -2590,6 +2590,12 @@
   </si>
   <si>
     <t>Check and follow up the group report documentation, Check on the RL component integration</t>
+  </si>
+  <si>
+    <t>Had a hangout session with Asantha ayiya, Had a supervisor meeting</t>
+  </si>
+  <si>
+    <t>Meet Wayomi and figure out existing issues in RL model</t>
   </si>
 </sst>
 </file>
@@ -2937,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E741"/>
+  <dimension ref="A1:E746"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="F746" sqref="F746"/>
+      <selection activeCell="C754" sqref="C754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9697,6 +9703,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" s="9">
+        <v>43413</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B744" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C744" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B745" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B746" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
